--- a/Data_Files/data sheet.xlsx
+++ b/Data_Files/data sheet.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\SPRI2020_Roomba\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E227E2-295B-4370-AD17-2D018CAEF2DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FBC7CE-EBF7-4FF2-A62A-3866FA089DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$C$143</definedName>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$E$1:$G$132</definedName>
-    <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$I$1:$K$132</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$F$1:$H$132</definedName>
+    <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$L$1:$N$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Column1</t>
   </si>
@@ -78,12 +79,33 @@
   <si>
     <t>Heading 3 - intial angle of 270</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>initial heading</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
+  <si>
+    <t>heading angle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +119,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,12 +156,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2376,11 +2452,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B39428FE-369B-4CBD-9590-D62EAB52977F}" name="bridgetest1" displayName="bridgetest1" ref="A1:D143" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D143" xr:uid="{F2B664B7-8D52-495C-93A2-5D08A2115029}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5997CB7D-3CA5-46BE-8057-050375937C9A}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{18FFC059-3608-4EDA-8919-421C9DE54B11}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{6F27F3E2-0E24-4EDE-B250-9EDED473D47C}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{A42E1A5B-0E3B-41E2-B9CE-968EC138209A}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="2">
-      <calculatedColumnFormula>bridgetest1[[#This Row],[Column1]]-1594818217</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5997CB7D-3CA5-46BE-8057-050375937C9A}" uniqueName="1" name="time" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{18FFC059-3608-4EDA-8919-421C9DE54B11}" uniqueName="2" name="phase" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{6F27F3E2-0E24-4EDE-B250-9EDED473D47C}" uniqueName="3" name="initial heading" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{A42E1A5B-0E3B-41E2-B9CE-968EC138209A}" uniqueName="4" name="seconds" queryTableFieldId="4" dataDxfId="2">
+      <calculatedColumnFormula>bridgetest1[[#This Row],[time]]-1594818217</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2388,14 +2464,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95DF3E73-753A-4222-939C-5FC644E25729}" name="citytest1" displayName="citytest1" ref="E1:H132" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="E1:H132" xr:uid="{9DB84934-CD55-4980-84C6-B741E36F549F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95DF3E73-753A-4222-939C-5FC644E25729}" name="citytest1" displayName="citytest1" ref="F1:I132" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="F1:I132" xr:uid="{9DB84934-CD55-4980-84C6-B741E36F549F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D77FB3DA-DAF2-495D-A4BC-25FA03341872}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{739AAA86-C144-45A9-ADFB-6D1C1126525E}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{36532BB5-84A4-4B64-85F3-F5BA2E9A8C1C}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{3F17276B-CAAD-44B7-BB96-464008395868}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="1">
-      <calculatedColumnFormula>citytest1[[#This Row],[Column1]]-1594818229</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{D77FB3DA-DAF2-495D-A4BC-25FA03341872}" uniqueName="1" name="time" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{739AAA86-C144-45A9-ADFB-6D1C1126525E}" uniqueName="2" name="phase" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{36532BB5-84A4-4B64-85F3-F5BA2E9A8C1C}" uniqueName="3" name="initial heading" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{3F17276B-CAAD-44B7-BB96-464008395868}" uniqueName="4" name="seconds" queryTableFieldId="4" dataDxfId="1">
+      <calculatedColumnFormula>citytest1[[#This Row],[time]]-1594818229</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2403,8 +2479,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CA5E95E-F1F4-427C-8F19-A283AE903A21}" name="logotest1" displayName="logotest1" ref="I1:L132" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="I1:L132" xr:uid="{5D4AB3DD-E820-4165-AB58-C5E2713225E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CA5E95E-F1F4-427C-8F19-A283AE903A21}" name="logotest1" displayName="logotest1" ref="L1:O132" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="L1:O132" xr:uid="{5D4AB3DD-E820-4165-AB58-C5E2713225E8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{89E94BCB-71DF-4885-BC4A-8953D02A8B78}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{4265CEB4-B5AE-4B64-8299-F3F4F8BB413C}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
@@ -2714,58 +2790,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EB3ACF-D963-4A0F-9D01-368FE69B755A}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:X143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1594818217</v>
       </c>
@@ -2776,37 +2876,59 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1594818229</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>364.96</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>180</v>
       </c>
-      <c r="H2">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I2">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>1594818229</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>479.30500000000001</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>270</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R2" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>351.79500000000002</v>
+      </c>
+      <c r="T2" s="9">
+        <v>90</v>
+      </c>
+      <c r="U2" s="3">
+        <v>364.96</v>
+      </c>
+      <c r="V2" s="7">
+        <v>180</v>
+      </c>
+      <c r="W2" s="3">
+        <v>479.30500000000001</v>
+      </c>
+      <c r="X2" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1594818218</v>
       </c>
@@ -2817,37 +2939,59 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1594818230</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4.9740000000000002</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>180</v>
       </c>
-      <c r="H3">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I3">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>1594818230</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>119.32</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>270</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R3" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <v>351.80200000000002</v>
+      </c>
+      <c r="T3" s="10">
+        <v>90</v>
+      </c>
+      <c r="U3" s="5">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="V3" s="8">
+        <v>180</v>
+      </c>
+      <c r="W3" s="5">
+        <v>119.32</v>
+      </c>
+      <c r="X3" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1594818219</v>
       </c>
@@ -2858,37 +3002,59 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1594818231</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4.9790000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>180</v>
       </c>
-      <c r="H4">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I4">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>1594818231</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>119.325</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>270</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R4" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>351.80599999999998</v>
+      </c>
+      <c r="T4" s="9">
+        <v>90</v>
+      </c>
+      <c r="U4" s="3">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="V4" s="7">
+        <v>180</v>
+      </c>
+      <c r="W4" s="3">
+        <v>119.325</v>
+      </c>
+      <c r="X4" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1594818220</v>
       </c>
@@ -2899,37 +3065,59 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1594818232</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4.9829999999999997</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>180</v>
       </c>
-      <c r="H5">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I5">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>1594818232</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>119.33</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>270</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R5" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>3</v>
+      </c>
+      <c r="S5" s="5">
+        <v>351.81</v>
+      </c>
+      <c r="T5" s="10">
+        <v>90</v>
+      </c>
+      <c r="U5" s="5">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="V5" s="8">
+        <v>180</v>
+      </c>
+      <c r="W5" s="5">
+        <v>119.33</v>
+      </c>
+      <c r="X5" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1594818221</v>
       </c>
@@ -2940,37 +3128,59 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1594818233</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4.9870000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>180</v>
       </c>
-      <c r="H6">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I6">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>1594818233</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>119.334</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>270</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R6" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>4</v>
+      </c>
+      <c r="S6" s="3">
+        <v>351.815</v>
+      </c>
+      <c r="T6" s="9">
+        <v>90</v>
+      </c>
+      <c r="U6" s="3">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="V6" s="7">
+        <v>180</v>
+      </c>
+      <c r="W6" s="3">
+        <v>119.334</v>
+      </c>
+      <c r="X6" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1594818222</v>
       </c>
@@ -2981,37 +3191,59 @@
         <v>90</v>
       </c>
       <c r="D7">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1594818234</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4.9930000000000003</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>180</v>
       </c>
-      <c r="H7">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I7">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>1594818234</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>119.33799999999999</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>270</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R7" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>5</v>
+      </c>
+      <c r="S7" s="5">
+        <v>351.81900000000002</v>
+      </c>
+      <c r="T7" s="10">
+        <v>90</v>
+      </c>
+      <c r="U7" s="5">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="V7" s="8">
+        <v>180</v>
+      </c>
+      <c r="W7" s="5">
+        <v>119.33799999999999</v>
+      </c>
+      <c r="X7" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1594818223</v>
       </c>
@@ -3022,37 +3254,59 @@
         <v>90</v>
       </c>
       <c r="D8">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1594818235</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15.112</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>165.11099999999999</v>
       </c>
-      <c r="H8">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I8">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>1594818235</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>120.001</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>270</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R8" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>6</v>
+      </c>
+      <c r="S8" s="3">
+        <v>351.82299999999998</v>
+      </c>
+      <c r="T8" s="9">
+        <v>90</v>
+      </c>
+      <c r="U8" s="3">
+        <v>15.112</v>
+      </c>
+      <c r="V8" s="7">
+        <v>165.11099999999999</v>
+      </c>
+      <c r="W8" s="3">
+        <v>120.001</v>
+      </c>
+      <c r="X8" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1594818224</v>
       </c>
@@ -3063,37 +3317,59 @@
         <v>90</v>
       </c>
       <c r="D9">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1594818236</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>33.091000000000001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>153.09</v>
       </c>
-      <c r="H9">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I9">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>1594818236</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>85.664000000000001</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>205.66399999999999</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R9" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>7</v>
+      </c>
+      <c r="S9" s="5">
+        <v>351.827</v>
+      </c>
+      <c r="T9" s="10">
+        <v>90</v>
+      </c>
+      <c r="U9" s="5">
+        <v>33.091000000000001</v>
+      </c>
+      <c r="V9" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="W9" s="5">
+        <v>85.664000000000001</v>
+      </c>
+      <c r="X9" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1594818225</v>
       </c>
@@ -3104,37 +3380,59 @@
         <v>90</v>
       </c>
       <c r="D10">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1594818237</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>63.09</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>153.09</v>
       </c>
-      <c r="H10">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I10">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>1594818237</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>115.664</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>205.66399999999999</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R10" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>8</v>
+      </c>
+      <c r="S10" s="3">
+        <v>360</v>
+      </c>
+      <c r="T10" s="9">
+        <v>90</v>
+      </c>
+      <c r="U10" s="3">
+        <v>63.09</v>
+      </c>
+      <c r="V10" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="W10" s="3">
+        <v>115.664</v>
+      </c>
+      <c r="X10" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1594818226</v>
       </c>
@@ -3145,37 +3443,59 @@
         <v>90</v>
       </c>
       <c r="D11">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1594818238</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>93.09</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>153.09</v>
       </c>
-      <c r="H11">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I11">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>1594818238</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>145.66399999999999</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>205.66399999999999</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R11" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>9</v>
+      </c>
+      <c r="S11" s="5">
+        <v>30</v>
+      </c>
+      <c r="T11" s="10">
+        <v>90</v>
+      </c>
+      <c r="U11" s="5">
+        <v>93.09</v>
+      </c>
+      <c r="V11" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="W11" s="5">
+        <v>145.66399999999999</v>
+      </c>
+      <c r="X11" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1594818227</v>
       </c>
@@ -3186,37 +3506,59 @@
         <v>90</v>
       </c>
       <c r="D12">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1594818239</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>123.09</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>153.09</v>
       </c>
-      <c r="H12">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I12">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>1594818239</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>175.66399999999999</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>205.66399999999999</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R12" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>10</v>
+      </c>
+      <c r="S12" s="3">
+        <v>60</v>
+      </c>
+      <c r="T12" s="9">
+        <v>90</v>
+      </c>
+      <c r="U12" s="3">
+        <v>123.09</v>
+      </c>
+      <c r="V12" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="W12" s="3">
+        <v>175.66399999999999</v>
+      </c>
+      <c r="X12" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1594818228</v>
       </c>
@@ -3227,37 +3569,59 @@
         <v>90</v>
       </c>
       <c r="D13">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1594818240</v>
-      </c>
-      <c r="F13">
-        <v>153.09</v>
       </c>
       <c r="G13">
         <v>153.09</v>
       </c>
       <c r="H13">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+        <v>153.09</v>
+      </c>
+      <c r="I13">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>11</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>1594818240</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>205.66399999999999</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>205.66399999999999</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R13" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>11</v>
+      </c>
+      <c r="S13" s="5">
+        <v>90</v>
+      </c>
+      <c r="T13" s="10">
+        <v>90</v>
+      </c>
+      <c r="U13" s="5">
+        <v>153.09</v>
+      </c>
+      <c r="V13" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="W13" s="5">
+        <v>205.66399999999999</v>
+      </c>
+      <c r="X13" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1594818229</v>
       </c>
@@ -3268,37 +3632,59 @@
         <v>90</v>
       </c>
       <c r="D14">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1594818241</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>183.09</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>153.09</v>
       </c>
-      <c r="H14">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I14">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>1594818241</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>235.66399999999999</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>205.66399999999999</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R14" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>12</v>
+      </c>
+      <c r="S14" s="3">
+        <v>120.001</v>
+      </c>
+      <c r="T14" s="9">
+        <v>90</v>
+      </c>
+      <c r="U14" s="3">
+        <v>183.09</v>
+      </c>
+      <c r="V14" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="W14" s="3">
+        <v>235.66399999999999</v>
+      </c>
+      <c r="X14" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1594818230</v>
       </c>
@@ -3309,37 +3695,59 @@
         <v>90</v>
       </c>
       <c r="D15">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1594818242</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>213.09</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>153.09</v>
       </c>
-      <c r="H15">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I15">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>13</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>1594818242</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>265.66399999999999</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>205.66399999999999</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R15" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>13</v>
+      </c>
+      <c r="S15" s="5">
+        <v>150</v>
+      </c>
+      <c r="T15" s="10">
+        <v>90</v>
+      </c>
+      <c r="U15" s="5">
+        <v>213.09</v>
+      </c>
+      <c r="V15" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="W15" s="5">
+        <v>265.66399999999999</v>
+      </c>
+      <c r="X15" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1594818231</v>
       </c>
@@ -3350,37 +3758,59 @@
         <v>90</v>
       </c>
       <c r="D16">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1594818243</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>243.09</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>153.09</v>
       </c>
-      <c r="H16">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I16">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>1594818243</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>295.66399999999999</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>205.66399999999999</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R16" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>14</v>
+      </c>
+      <c r="S16" s="3">
+        <v>180</v>
+      </c>
+      <c r="T16" s="9">
+        <v>90</v>
+      </c>
+      <c r="U16" s="3">
+        <v>243.09</v>
+      </c>
+      <c r="V16" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="W16" s="3">
+        <v>295.66399999999999</v>
+      </c>
+      <c r="X16" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1594818232</v>
       </c>
@@ -3391,37 +3821,59 @@
         <v>90</v>
       </c>
       <c r="D17">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1594818244</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>273.08999999999997</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>153.09</v>
       </c>
-      <c r="H17">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I17">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>15</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>1594818244</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>325.66399999999999</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>205.66399999999999</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R17" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>15</v>
+      </c>
+      <c r="S17" s="5">
+        <v>210</v>
+      </c>
+      <c r="T17" s="10">
+        <v>90</v>
+      </c>
+      <c r="U17" s="5">
+        <v>273.08999999999997</v>
+      </c>
+      <c r="V17" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="W17" s="5">
+        <v>325.66399999999999</v>
+      </c>
+      <c r="X17" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1594818233</v>
       </c>
@@ -3432,37 +3884,59 @@
         <v>90</v>
       </c>
       <c r="D18">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>16</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1594818245</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>303.08999999999997</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>153.09</v>
       </c>
-      <c r="H18">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I18">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>16</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>1594818245</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>355.66399999999999</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>205.66399999999999</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R18" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>16</v>
+      </c>
+      <c r="S18" s="3">
+        <v>240</v>
+      </c>
+      <c r="T18" s="9">
+        <v>90</v>
+      </c>
+      <c r="U18" s="3">
+        <v>303.08999999999997</v>
+      </c>
+      <c r="V18" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="W18" s="3">
+        <v>355.66399999999999</v>
+      </c>
+      <c r="X18" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1594818234</v>
       </c>
@@ -3473,37 +3947,59 @@
         <v>90</v>
       </c>
       <c r="D19">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>17</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1594818246</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>359.14100000000002</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>179.14099999999999</v>
       </c>
-      <c r="H19">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I19">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>17</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>1594818246</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>25.664000000000001</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>205.66399999999999</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R19" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>17</v>
+      </c>
+      <c r="S19" s="5">
+        <v>270.00099999999998</v>
+      </c>
+      <c r="T19" s="10">
+        <v>90</v>
+      </c>
+      <c r="U19" s="5">
+        <v>359.14100000000002</v>
+      </c>
+      <c r="V19" s="8">
+        <v>179.14099999999999</v>
+      </c>
+      <c r="W19" s="5">
+        <v>25.664000000000001</v>
+      </c>
+      <c r="X19" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1594818235</v>
       </c>
@@ -3514,37 +4010,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D20">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1594818247</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>27.521000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>177.52099999999999</v>
       </c>
-      <c r="H20">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I20">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>18</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>1594818247</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>34.28</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>184.279</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R20" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>18</v>
+      </c>
+      <c r="S20" s="3">
+        <v>351.50700000000001</v>
+      </c>
+      <c r="T20" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U20" s="3">
+        <v>27.521000000000001</v>
+      </c>
+      <c r="V20" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W20" s="3">
+        <v>34.28</v>
+      </c>
+      <c r="X20" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1594818236</v>
       </c>
@@ -3555,37 +4073,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D21">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>19</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1594818248</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>57.521000000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>177.52099999999999</v>
       </c>
-      <c r="H21">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I21">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>19</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>1594818248</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>64.28</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>184.279</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R21" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>19</v>
+      </c>
+      <c r="S21" s="5">
+        <v>21.507999999999999</v>
+      </c>
+      <c r="T21" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U21" s="5">
+        <v>57.521000000000001</v>
+      </c>
+      <c r="V21" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W21" s="5">
+        <v>64.28</v>
+      </c>
+      <c r="X21" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1594818237</v>
       </c>
@@ -3596,37 +4136,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D22">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>20</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1594818249</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>87.521000000000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>177.52099999999999</v>
       </c>
-      <c r="H22">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I22">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>20</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>1594818249</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>94.28</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>184.279</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R22" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>20</v>
+      </c>
+      <c r="S22" s="3">
+        <v>51.508000000000003</v>
+      </c>
+      <c r="T22" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U22" s="3">
+        <v>87.521000000000001</v>
+      </c>
+      <c r="V22" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W22" s="3">
+        <v>94.28</v>
+      </c>
+      <c r="X22" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1594818238</v>
       </c>
@@ -3637,37 +4199,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D23">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>21</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1594818250</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>117.52200000000001</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>177.52099999999999</v>
       </c>
-      <c r="H23">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I23">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>21</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>1594818250</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>124.28</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>184.279</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R23" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>21</v>
+      </c>
+      <c r="S23" s="5">
+        <v>81.507999999999996</v>
+      </c>
+      <c r="T23" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U23" s="5">
+        <v>117.52200000000001</v>
+      </c>
+      <c r="V23" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W23" s="5">
+        <v>124.28</v>
+      </c>
+      <c r="X23" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1594818239</v>
       </c>
@@ -3678,37 +4262,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D24">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1594818251</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>147.52199999999999</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>177.52099999999999</v>
       </c>
-      <c r="H24">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I24">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>22</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>1594818251</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>154.28</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>184.279</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R24" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>22</v>
+      </c>
+      <c r="S24" s="3">
+        <v>111.508</v>
+      </c>
+      <c r="T24" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U24" s="3">
+        <v>147.52199999999999</v>
+      </c>
+      <c r="V24" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W24" s="3">
+        <v>154.28</v>
+      </c>
+      <c r="X24" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1594818240</v>
       </c>
@@ -3719,37 +4325,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D25">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>23</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1594818252</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>177.52199999999999</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>177.52099999999999</v>
       </c>
-      <c r="H25">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I25">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>23</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>1594818252</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>184.279</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>184.279</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R25" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>23</v>
+      </c>
+      <c r="S25" s="5">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="T25" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U25" s="5">
+        <v>177.52199999999999</v>
+      </c>
+      <c r="V25" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W25" s="5">
+        <v>184.279</v>
+      </c>
+      <c r="X25" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1594818241</v>
       </c>
@@ -3760,37 +4388,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D26">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>24</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1594818253</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>207.52099999999999</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>177.52099999999999</v>
       </c>
-      <c r="H26">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I26">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>24</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>1594818253</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>214.28</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>184.279</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R26" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>24</v>
+      </c>
+      <c r="S26" s="3">
+        <v>171.50800000000001</v>
+      </c>
+      <c r="T26" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U26" s="3">
+        <v>207.52099999999999</v>
+      </c>
+      <c r="V26" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W26" s="3">
+        <v>214.28</v>
+      </c>
+      <c r="X26" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1594818242</v>
       </c>
@@ -3801,37 +4451,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D27">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>25</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1594818254</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>237.52099999999999</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>177.52099999999999</v>
       </c>
-      <c r="H27">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I27">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>25</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>1594818254</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>244.28</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>184.279</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R27" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>25</v>
+      </c>
+      <c r="S27" s="5">
+        <v>201.50800000000001</v>
+      </c>
+      <c r="T27" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U27" s="5">
+        <v>237.52099999999999</v>
+      </c>
+      <c r="V27" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W27" s="5">
+        <v>244.28</v>
+      </c>
+      <c r="X27" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1594818243</v>
       </c>
@@ -3842,37 +4514,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D28">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1594818255</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>267.52100000000002</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>177.52099999999999</v>
       </c>
-      <c r="H28">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I28">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>26</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>1594818255</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>274.27999999999997</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>184.279</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R28" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>26</v>
+      </c>
+      <c r="S28" s="3">
+        <v>231.50800000000001</v>
+      </c>
+      <c r="T28" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U28" s="3">
+        <v>267.52100000000002</v>
+      </c>
+      <c r="V28" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W28" s="3">
+        <v>274.27999999999997</v>
+      </c>
+      <c r="X28" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1594818244</v>
       </c>
@@ -3883,37 +4577,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D29">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>27</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1594818256</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>297.52100000000002</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>177.52099999999999</v>
       </c>
-      <c r="H29">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I29">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>27</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>1594818256</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>304.27999999999997</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>184.279</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R29" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>27</v>
+      </c>
+      <c r="S29" s="5">
+        <v>261.50700000000001</v>
+      </c>
+      <c r="T29" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U29" s="5">
+        <v>297.52100000000002</v>
+      </c>
+      <c r="V29" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W29" s="5">
+        <v>304.27999999999997</v>
+      </c>
+      <c r="X29" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1594818245</v>
       </c>
@@ -3924,37 +4640,59 @@
         <v>141.50700000000001</v>
       </c>
       <c r="D30">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1594818257</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>327.52199999999999</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>177.52099999999999</v>
       </c>
-      <c r="H30">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I30">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>28</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>1594818257</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>334.279</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>184.279</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R30" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>28</v>
+      </c>
+      <c r="S30" s="3">
+        <v>291.50799999999998</v>
+      </c>
+      <c r="T30" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="U30" s="3">
+        <v>327.52199999999999</v>
+      </c>
+      <c r="V30" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="W30" s="3">
+        <v>334.279</v>
+      </c>
+      <c r="X30" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1594818246</v>
       </c>
@@ -3965,37 +4703,59 @@
         <v>173.46600000000001</v>
       </c>
       <c r="D31">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>29</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1594818258</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.66700000000000004</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>180.666</v>
       </c>
-      <c r="H31">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I31">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>29</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>1594818258</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>2.4910000000000001</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>182.49</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R31" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>29</v>
+      </c>
+      <c r="S31" s="5">
+        <v>353.46600000000001</v>
+      </c>
+      <c r="T31" s="10">
+        <v>173.46600000000001</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="V31" s="8">
+        <v>180.666</v>
+      </c>
+      <c r="W31" s="5">
+        <v>2.4910000000000001</v>
+      </c>
+      <c r="X31" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1594818247</v>
       </c>
@@ -4006,37 +4766,59 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D32">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1594818259</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>30.324999999999999</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>180.32499999999999</v>
       </c>
-      <c r="H32">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I32">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>30</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>1594818259</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>32.49</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>182.49</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R32" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>30</v>
+      </c>
+      <c r="S32" s="3">
+        <v>26.318000000000001</v>
+      </c>
+      <c r="T32" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="U32" s="3">
+        <v>30.324999999999999</v>
+      </c>
+      <c r="V32" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="W32" s="3">
+        <v>32.49</v>
+      </c>
+      <c r="X32" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1594818248</v>
       </c>
@@ -4047,37 +4829,59 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D33">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>31</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1594818260</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>60.325000000000003</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>180.32499999999999</v>
       </c>
-      <c r="H33">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I33">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>31</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>1594818260</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>62.491</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>182.49</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R33" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>31</v>
+      </c>
+      <c r="S33" s="5">
+        <v>56.317999999999998</v>
+      </c>
+      <c r="T33" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="U33" s="5">
+        <v>60.325000000000003</v>
+      </c>
+      <c r="V33" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="W33" s="5">
+        <v>62.491</v>
+      </c>
+      <c r="X33" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1594818249</v>
       </c>
@@ -4088,37 +4892,59 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D34">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1594818261</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>90.325000000000003</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>180.32499999999999</v>
       </c>
-      <c r="H34">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I34">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>32</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>1594818261</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>92.49</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>182.49</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R34" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>32</v>
+      </c>
+      <c r="S34" s="3">
+        <v>86.317999999999998</v>
+      </c>
+      <c r="T34" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="U34" s="3">
+        <v>90.325000000000003</v>
+      </c>
+      <c r="V34" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="W34" s="3">
+        <v>92.49</v>
+      </c>
+      <c r="X34" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1594818250</v>
       </c>
@@ -4129,37 +4955,59 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D35">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>33</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1594818262</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>120.325</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>180.32499999999999</v>
       </c>
-      <c r="H35">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I35">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>33</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>1594818262</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>122.49</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>182.49</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R35" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>33</v>
+      </c>
+      <c r="S35" s="5">
+        <v>116.318</v>
+      </c>
+      <c r="T35" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="U35" s="5">
+        <v>120.325</v>
+      </c>
+      <c r="V35" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="W35" s="5">
+        <v>122.49</v>
+      </c>
+      <c r="X35" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1594818251</v>
       </c>
@@ -4170,37 +5018,59 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D36">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>34</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1594818263</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>150.32499999999999</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>180.32499999999999</v>
       </c>
-      <c r="H36">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I36">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>34</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>1594818263</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>152.49100000000001</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>182.49</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R36" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>34</v>
+      </c>
+      <c r="S36" s="3">
+        <v>146.31800000000001</v>
+      </c>
+      <c r="T36" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="U36" s="3">
+        <v>150.32499999999999</v>
+      </c>
+      <c r="V36" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="W36" s="3">
+        <v>152.49100000000001</v>
+      </c>
+      <c r="X36" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1594818252</v>
       </c>
@@ -4211,37 +5081,59 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D37">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>35</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1594818264</v>
-      </c>
-      <c r="F37">
-        <v>180.32499999999999</v>
       </c>
       <c r="G37">
         <v>180.32499999999999</v>
       </c>
       <c r="H37">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+        <v>180.32499999999999</v>
+      </c>
+      <c r="I37">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>35</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>1594818264</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>182.49</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>182.49</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R37" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>35</v>
+      </c>
+      <c r="S37" s="5">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="T37" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="U37" s="5">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="V37" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="W37" s="5">
+        <v>182.49</v>
+      </c>
+      <c r="X37" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1594818253</v>
       </c>
@@ -4252,37 +5144,37 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D38">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>36</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1594818265</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>210.32499999999999</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>180.32499999999999</v>
       </c>
-      <c r="H38">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I38">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>36</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>1594818265</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>212.49100000000001</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>182.49</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1594818254</v>
       </c>
@@ -4293,37 +5185,37 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D39">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>37</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1594818266</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>240.32499999999999</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>180.32499999999999</v>
       </c>
-      <c r="H39">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I39">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>37</v>
       </c>
-      <c r="I39">
+      <c r="L39">
         <v>1594818266</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>242.49100000000001</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>182.49</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1594818255</v>
       </c>
@@ -4334,37 +5226,37 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D40">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>38</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1594818267</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>270.32499999999999</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>180.32499999999999</v>
       </c>
-      <c r="H40">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I40">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>38</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>1594818267</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>272.49099999999999</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>182.49</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1594818256</v>
       </c>
@@ -4375,37 +5267,37 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D41">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>39</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1594818268</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>300.32499999999999</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>180.32499999999999</v>
       </c>
-      <c r="H41">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I41">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>39</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>1594818268</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>302.49099999999999</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>182.49</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1594818257</v>
       </c>
@@ -4416,37 +5308,37 @@
         <v>176.31800000000001</v>
       </c>
       <c r="D42">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>40</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1594818269</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>330.32499999999999</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>180.32499999999999</v>
       </c>
-      <c r="H42">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I42">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>40</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>1594818269</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>332.49</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>182.49</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1594818258</v>
       </c>
@@ -4457,37 +5349,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D43">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>41</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1594818270</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.004</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>181.00299999999999</v>
       </c>
-      <c r="H43">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I43">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>41</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>1594818270</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>1.841</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>181.84100000000001</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1594818259</v>
       </c>
@@ -4498,37 +5390,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D44">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>42</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1594818271</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>31.004000000000001</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>181.00299999999999</v>
       </c>
-      <c r="H44">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I44">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>42</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>1594818271</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>31.841000000000001</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>181.84100000000001</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1594818260</v>
       </c>
@@ -4539,37 +5431,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D45">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>43</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1594818272</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>61.003999999999998</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>181.00299999999999</v>
       </c>
-      <c r="H45">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I45">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>43</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>1594818272</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>61.841000000000001</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>181.84100000000001</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1594818261</v>
       </c>
@@ -4580,37 +5472,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D46">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>44</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1594818273</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>91.004000000000005</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>181.00299999999999</v>
       </c>
-      <c r="H46">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I46">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>44</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>1594818273</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>91.840999999999994</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>181.84100000000001</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1594818262</v>
       </c>
@@ -4621,37 +5513,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D47">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>45</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1594818274</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>121.004</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>181.00299999999999</v>
       </c>
-      <c r="H47">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I47">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>45</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>1594818274</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>121.84099999999999</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>181.84100000000001</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1594818263</v>
       </c>
@@ -4662,37 +5554,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D48">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>46</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1594818275</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>151.00399999999999</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>181.00299999999999</v>
       </c>
-      <c r="H48">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I48">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>46</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <v>1594818275</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>151.84100000000001</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>181.84100000000001</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1594818264</v>
       </c>
@@ -4703,37 +5595,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D49">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>47</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1594818276</v>
-      </c>
-      <c r="F49">
-        <v>181.00299999999999</v>
       </c>
       <c r="G49">
         <v>181.00299999999999</v>
       </c>
       <c r="H49">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+        <v>181.00299999999999</v>
+      </c>
+      <c r="I49">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>47</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <v>1594818276</v>
       </c>
-      <c r="J49">
+      <c r="M49">
         <v>181.84100000000001</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>181.84100000000001</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1594818265</v>
       </c>
@@ -4744,37 +5636,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D50">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>48</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>1594818277</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>211.00399999999999</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>181.00299999999999</v>
       </c>
-      <c r="H50">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I50">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>48</v>
       </c>
-      <c r="I50">
+      <c r="L50">
         <v>1594818277</v>
       </c>
-      <c r="J50">
+      <c r="M50">
         <v>211.84100000000001</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>181.84100000000001</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1594818266</v>
       </c>
@@ -4785,37 +5677,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D51">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>49</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>1594818278</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>241.00399999999999</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>181.00299999999999</v>
       </c>
-      <c r="H51">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I51">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>49</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <v>1594818278</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>241.84100000000001</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>181.84100000000001</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1594818267</v>
       </c>
@@ -4826,37 +5718,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D52">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>50</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1594818279</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>271.00400000000002</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>181.00299999999999</v>
       </c>
-      <c r="H52">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I52">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>50</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <v>1594818279</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>271.84100000000001</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>181.84100000000001</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1594818268</v>
       </c>
@@ -4867,37 +5759,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D53">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>51</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>1594818280</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>301.00400000000002</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>181.00299999999999</v>
       </c>
-      <c r="H53">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I53">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>51</v>
       </c>
-      <c r="I53">
+      <c r="L53">
         <v>1594818280</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>301.84100000000001</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>181.84100000000001</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1594818269</v>
       </c>
@@ -4908,37 +5800,37 @@
         <v>180.42400000000001</v>
       </c>
       <c r="D54">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>52</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>1594818281</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>331.00400000000002</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>181.00299999999999</v>
       </c>
-      <c r="H54">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I54">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>52</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>1594818281</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>331.84100000000001</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>181.84100000000001</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1594818270</v>
       </c>
@@ -4949,37 +5841,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D55">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>53</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>1594818282</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1.085</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>181.08500000000001</v>
       </c>
-      <c r="H55">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I55">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>53</v>
       </c>
-      <c r="I55">
+      <c r="L55">
         <v>1594818282</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>1.5349999999999999</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>181.535</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1594818271</v>
       </c>
@@ -4990,37 +5882,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D56">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>54</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1594818283</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>31.085000000000001</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>181.08500000000001</v>
       </c>
-      <c r="H56">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I56">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>54</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <v>1594818283</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>31.536000000000001</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>181.535</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1594818272</v>
       </c>
@@ -5031,37 +5923,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D57">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>55</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>1594818284</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>61.085000000000001</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>181.08500000000001</v>
       </c>
-      <c r="H57">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I57">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>55</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <v>1594818284</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>61.536000000000001</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>181.535</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1594818273</v>
       </c>
@@ -5072,37 +5964,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D58">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>56</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1594818285</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>91.084999999999994</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>181.08500000000001</v>
       </c>
-      <c r="H58">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I58">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>56</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <v>1594818285</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>91.536000000000001</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>181.535</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1594818274</v>
       </c>
@@ -5113,37 +6005,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D59">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>57</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1594818286</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>121.08499999999999</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>181.08500000000001</v>
       </c>
-      <c r="H59">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I59">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>57</v>
       </c>
-      <c r="I59">
+      <c r="L59">
         <v>1594818286</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>121.536</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>181.535</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1594818275</v>
       </c>
@@ -5154,37 +6046,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D60">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>58</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1594818287</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>151.08500000000001</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>181.08500000000001</v>
       </c>
-      <c r="H60">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I60">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>58</v>
       </c>
-      <c r="I60">
+      <c r="L60">
         <v>1594818287</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>151.536</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>181.535</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1594818276</v>
       </c>
@@ -5195,37 +6087,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D61">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>59</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>1594818288</v>
-      </c>
-      <c r="F61">
-        <v>181.08500000000001</v>
       </c>
       <c r="G61">
         <v>181.08500000000001</v>
       </c>
       <c r="H61">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+        <v>181.08500000000001</v>
+      </c>
+      <c r="I61">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>59</v>
       </c>
-      <c r="I61">
+      <c r="L61">
         <v>1594818288</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>181.536</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>181.535</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1594818277</v>
       </c>
@@ -5236,37 +6128,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D62">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>60</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>1594818289</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>211.08500000000001</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>181.08500000000001</v>
       </c>
-      <c r="H62">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I62">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>60</v>
       </c>
-      <c r="I62">
+      <c r="L62">
         <v>1594818289</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>211.536</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>181.535</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1594818278</v>
       </c>
@@ -5277,37 +6169,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D63">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>61</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1594818290</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>241.08500000000001</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>181.08500000000001</v>
       </c>
-      <c r="H63">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I63">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>61</v>
       </c>
-      <c r="I63">
+      <c r="L63">
         <v>1594818290</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>241.535</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>181.535</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1594818279</v>
       </c>
@@ -5318,37 +6210,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D64">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>62</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>1594818291</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>271.08499999999998</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>181.08500000000001</v>
       </c>
-      <c r="H64">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I64">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>62</v>
       </c>
-      <c r="I64">
+      <c r="L64">
         <v>1594818291</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>271.536</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>181.535</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1594818280</v>
       </c>
@@ -5359,37 +6251,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D65">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>63</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>1594818292</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>301.08499999999998</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>181.08500000000001</v>
       </c>
-      <c r="H65">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I65">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>63</v>
       </c>
-      <c r="I65">
+      <c r="L65">
         <v>1594818292</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>301.53500000000003</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>181.535</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1594818281</v>
       </c>
@@ -5400,37 +6292,37 @@
         <v>181.24100000000001</v>
       </c>
       <c r="D66">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>64</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>1594818293</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>331.08499999999998</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>181.08500000000001</v>
       </c>
-      <c r="H66">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I66">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>64</v>
       </c>
-      <c r="I66">
+      <c r="L66">
         <v>1594818293</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>331.536</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>181.535</v>
       </c>
-      <c r="L66">
+      <c r="O66">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1594818282</v>
       </c>
@@ -5441,37 +6333,37 @@
         <v>181.42</v>
       </c>
       <c r="D67">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>65</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1594818294</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.84799999999999998</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>180.84800000000001</v>
       </c>
-      <c r="H67">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I67">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>65</v>
       </c>
-      <c r="I67">
+      <c r="L67">
         <v>1594818294</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>1.3280000000000001</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>181.327</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1594818283</v>
       </c>
@@ -5482,37 +6374,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D68">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>66</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1594818295</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>30.847999999999999</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>180.84800000000001</v>
       </c>
-      <c r="H68">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I68">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>66</v>
       </c>
-      <c r="I68">
+      <c r="L68">
         <v>1594818295</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>31.327999999999999</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>181.327</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1594818284</v>
       </c>
@@ -5523,37 +6415,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D69">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>67</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1594818296</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>60.847999999999999</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>180.84800000000001</v>
       </c>
-      <c r="H69">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I69">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>67</v>
       </c>
-      <c r="I69">
+      <c r="L69">
         <v>1594818296</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>61.328000000000003</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>181.327</v>
       </c>
-      <c r="L69">
+      <c r="O69">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1594818285</v>
       </c>
@@ -5564,37 +6456,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D70">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>68</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>1594818297</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>90.847999999999999</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>180.84800000000001</v>
       </c>
-      <c r="H70">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I70">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>68</v>
       </c>
-      <c r="I70">
+      <c r="L70">
         <v>1594818297</v>
       </c>
-      <c r="J70">
+      <c r="M70">
         <v>91.326999999999998</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>181.327</v>
       </c>
-      <c r="L70">
+      <c r="O70">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1594818286</v>
       </c>
@@ -5605,37 +6497,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D71">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>69</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>1594818298</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>120.848</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>180.84800000000001</v>
       </c>
-      <c r="H71">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I71">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>69</v>
       </c>
-      <c r="I71">
+      <c r="L71">
         <v>1594818298</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>121.328</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>181.327</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1594818287</v>
       </c>
@@ -5646,37 +6538,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D72">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>70</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>1594818299</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>150.84800000000001</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>180.84800000000001</v>
       </c>
-      <c r="H72">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I72">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>70</v>
       </c>
-      <c r="I72">
+      <c r="L72">
         <v>1594818299</v>
       </c>
-      <c r="J72">
+      <c r="M72">
         <v>151.328</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>181.327</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1594818288</v>
       </c>
@@ -5687,37 +6579,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D73">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>71</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>1594818300</v>
-      </c>
-      <c r="F73">
-        <v>180.84800000000001</v>
       </c>
       <c r="G73">
         <v>180.84800000000001</v>
       </c>
       <c r="H73">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+        <v>180.84800000000001</v>
+      </c>
+      <c r="I73">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>71</v>
       </c>
-      <c r="I73">
+      <c r="L73">
         <v>1594818300</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>181.328</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>181.327</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1594818289</v>
       </c>
@@ -5728,37 +6620,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D74">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>72</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>1594818301</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>210.84800000000001</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>180.84800000000001</v>
       </c>
-      <c r="H74">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I74">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>72</v>
       </c>
-      <c r="I74">
+      <c r="L74">
         <v>1594818301</v>
       </c>
-      <c r="J74">
+      <c r="M74">
         <v>211.328</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>181.327</v>
       </c>
-      <c r="L74">
+      <c r="O74">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1594818290</v>
       </c>
@@ -5769,37 +6661,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D75">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>73</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>1594818302</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>240.84800000000001</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>180.84800000000001</v>
       </c>
-      <c r="H75">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I75">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>73</v>
       </c>
-      <c r="I75">
+      <c r="L75">
         <v>1594818302</v>
       </c>
-      <c r="J75">
+      <c r="M75">
         <v>241.328</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>181.327</v>
       </c>
-      <c r="L75">
+      <c r="O75">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1594818291</v>
       </c>
@@ -5810,37 +6702,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D76">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>74</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>1594818303</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>270.84800000000001</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>180.84800000000001</v>
       </c>
-      <c r="H76">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I76">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>74</v>
       </c>
-      <c r="I76">
+      <c r="L76">
         <v>1594818303</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>271.327</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>181.327</v>
       </c>
-      <c r="L76">
+      <c r="O76">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1594818292</v>
       </c>
@@ -5851,37 +6743,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D77">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>75</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>1594818304</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>300.84800000000001</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>180.84800000000001</v>
       </c>
-      <c r="H77">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I77">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>75</v>
       </c>
-      <c r="I77">
+      <c r="L77">
         <v>1594818304</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>301.32799999999997</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>181.327</v>
       </c>
-      <c r="L77">
+      <c r="O77">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1594818293</v>
       </c>
@@ -5892,37 +6784,37 @@
         <v>180.66399999999999</v>
       </c>
       <c r="D78">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>76</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>1594818305</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>330.84800000000001</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>180.84800000000001</v>
       </c>
-      <c r="H78">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I78">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>76</v>
       </c>
-      <c r="I78">
+      <c r="L78">
         <v>1594818305</v>
       </c>
-      <c r="J78">
+      <c r="M78">
         <v>331.32799999999997</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>181.327</v>
       </c>
-      <c r="L78">
+      <c r="O78">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1594818294</v>
       </c>
@@ -5933,37 +6825,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D79">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>77</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>1594818306</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>180.72800000000001</v>
       </c>
-      <c r="H79">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I79">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>77</v>
       </c>
-      <c r="I79">
+      <c r="L79">
         <v>1594818306</v>
       </c>
-      <c r="J79">
+      <c r="M79">
         <v>1.1120000000000001</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>181.11199999999999</v>
       </c>
-      <c r="L79">
+      <c r="O79">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1594818295</v>
       </c>
@@ -5974,37 +6866,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D80">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>78</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>1594818307</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>30.728999999999999</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>180.72800000000001</v>
       </c>
-      <c r="H80">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I80">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>78</v>
       </c>
-      <c r="I80">
+      <c r="L80">
         <v>1594818307</v>
       </c>
-      <c r="J80">
+      <c r="M80">
         <v>31.111999999999998</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>181.11199999999999</v>
       </c>
-      <c r="L80">
+      <c r="O80">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1594818296</v>
       </c>
@@ -6015,37 +6907,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D81">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>79</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>1594818308</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>60.728000000000002</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>180.72800000000001</v>
       </c>
-      <c r="H81">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I81">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>79</v>
       </c>
-      <c r="I81">
+      <c r="L81">
         <v>1594818308</v>
       </c>
-      <c r="J81">
+      <c r="M81">
         <v>61.112000000000002</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>181.11199999999999</v>
       </c>
-      <c r="L81">
+      <c r="O81">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1594818297</v>
       </c>
@@ -6056,37 +6948,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D82">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>80</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>1594818309</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>90.727999999999994</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>180.72800000000001</v>
       </c>
-      <c r="H82">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I82">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>80</v>
       </c>
-      <c r="I82">
+      <c r="L82">
         <v>1594818309</v>
       </c>
-      <c r="J82">
+      <c r="M82">
         <v>91.111999999999995</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>181.11199999999999</v>
       </c>
-      <c r="L82">
+      <c r="O82">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1594818298</v>
       </c>
@@ -6097,37 +6989,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D83">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>81</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>1594818310</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>120.72799999999999</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>180.72800000000001</v>
       </c>
-      <c r="H83">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I83">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>81</v>
       </c>
-      <c r="I83">
+      <c r="L83">
         <v>1594818310</v>
       </c>
-      <c r="J83">
+      <c r="M83">
         <v>121.11199999999999</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>181.11199999999999</v>
       </c>
-      <c r="L83">
+      <c r="O83">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1594818299</v>
       </c>
@@ -6138,37 +7030,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D84">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>82</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>1594818311</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>150.72900000000001</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>180.72800000000001</v>
       </c>
-      <c r="H84">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I84">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>82</v>
       </c>
-      <c r="I84">
+      <c r="L84">
         <v>1594818311</v>
       </c>
-      <c r="J84">
+      <c r="M84">
         <v>151.11199999999999</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>181.11199999999999</v>
       </c>
-      <c r="L84">
+      <c r="O84">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1594818300</v>
       </c>
@@ -6179,37 +7071,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D85">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>83</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>1594818312</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>180.72900000000001</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>180.72800000000001</v>
       </c>
-      <c r="H85">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I85">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>83</v>
       </c>
-      <c r="I85">
+      <c r="L85">
         <v>1594818312</v>
       </c>
-      <c r="J85">
+      <c r="M85">
         <v>181.11199999999999</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>181.11199999999999</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1594818301</v>
       </c>
@@ -6220,37 +7112,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D86">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>84</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>1594818313</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>210.72800000000001</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>180.72800000000001</v>
       </c>
-      <c r="H86">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I86">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>84</v>
       </c>
-      <c r="I86">
+      <c r="L86">
         <v>1594818313</v>
       </c>
-      <c r="J86">
+      <c r="M86">
         <v>211.11199999999999</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>181.11199999999999</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1594818302</v>
       </c>
@@ -6261,37 +7153,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D87">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>85</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>1594818314</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>240.72900000000001</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>180.72800000000001</v>
       </c>
-      <c r="H87">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I87">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>85</v>
       </c>
-      <c r="I87">
+      <c r="L87">
         <v>1594818314</v>
       </c>
-      <c r="J87">
+      <c r="M87">
         <v>241.11199999999999</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>181.11199999999999</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1594818303</v>
       </c>
@@ -6302,37 +7194,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D88">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>86</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>1594818315</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>270.72800000000001</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>180.72800000000001</v>
       </c>
-      <c r="H88">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I88">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>86</v>
       </c>
-      <c r="I88">
+      <c r="L88">
         <v>1594818315</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>271.11200000000002</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>181.11199999999999</v>
       </c>
-      <c r="L88">
+      <c r="O88">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1594818304</v>
       </c>
@@ -6343,37 +7235,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D89">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>87</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>1594818316</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>300.72899999999998</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>180.72800000000001</v>
       </c>
-      <c r="H89">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I89">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>87</v>
       </c>
-      <c r="I89">
+      <c r="L89">
         <v>1594818316</v>
       </c>
-      <c r="J89">
+      <c r="M89">
         <v>301.11200000000002</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>181.11199999999999</v>
       </c>
-      <c r="L89">
+      <c r="O89">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1594818305</v>
       </c>
@@ -6384,37 +7276,37 @@
         <v>181.05099999999999</v>
       </c>
       <c r="D90">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>88</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>1594818317</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>330.72800000000001</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>180.72800000000001</v>
       </c>
-      <c r="H90">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I90">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>88</v>
       </c>
-      <c r="I90">
+      <c r="L90">
         <v>1594818317</v>
       </c>
-      <c r="J90">
+      <c r="M90">
         <v>331.11200000000002</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>181.11199999999999</v>
       </c>
-      <c r="L90">
+      <c r="O90">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1594818306</v>
       </c>
@@ -6425,37 +7317,37 @@
         <v>180.976</v>
       </c>
       <c r="D91">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>89</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>1594818318</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>0.58199999999999996</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>180.58199999999999</v>
       </c>
-      <c r="H91">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I91">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>89</v>
       </c>
-      <c r="I91">
+      <c r="L91">
         <v>1594818318</v>
       </c>
-      <c r="J91">
+      <c r="M91">
         <v>0.94899999999999995</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>180.94800000000001</v>
       </c>
-      <c r="L91">
+      <c r="O91">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1594818307</v>
       </c>
@@ -6466,37 +7358,37 @@
         <v>180.976</v>
       </c>
       <c r="D92">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>90</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>1594818319</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>30.582000000000001</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>180.58199999999999</v>
       </c>
-      <c r="H92">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I92">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>90</v>
       </c>
-      <c r="I92">
+      <c r="L92">
         <v>1594818319</v>
       </c>
-      <c r="J92">
+      <c r="M92">
         <v>30.949000000000002</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>180.94800000000001</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1594818308</v>
       </c>
@@ -6507,37 +7399,37 @@
         <v>180.976</v>
       </c>
       <c r="D93">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>91</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>1594818320</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>60.582000000000001</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>180.58199999999999</v>
       </c>
-      <c r="H93">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I93">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>91</v>
       </c>
-      <c r="I93">
+      <c r="L93">
         <v>1594818320</v>
       </c>
-      <c r="J93">
+      <c r="M93">
         <v>60.948999999999998</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>180.94800000000001</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1594818309</v>
       </c>
@@ -6548,37 +7440,37 @@
         <v>180.976</v>
       </c>
       <c r="D94">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>92</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>1594818321</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>90.581999999999994</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>180.58199999999999</v>
       </c>
-      <c r="H94">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I94">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>92</v>
       </c>
-      <c r="I94">
+      <c r="L94">
         <v>1594818321</v>
       </c>
-      <c r="J94">
+      <c r="M94">
         <v>90.947999999999993</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <v>180.94800000000001</v>
       </c>
-      <c r="L94">
+      <c r="O94">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1594818310</v>
       </c>
@@ -6589,37 +7481,37 @@
         <v>180.976</v>
       </c>
       <c r="D95">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>93</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>1594818322</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>120.58199999999999</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>180.58199999999999</v>
       </c>
-      <c r="H95">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I95">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>93</v>
       </c>
-      <c r="I95">
+      <c r="L95">
         <v>1594818322</v>
       </c>
-      <c r="J95">
+      <c r="M95">
         <v>120.94799999999999</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>180.94800000000001</v>
       </c>
-      <c r="L95">
+      <c r="O95">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1594818311</v>
       </c>
@@ -6630,37 +7522,37 @@
         <v>180.976</v>
       </c>
       <c r="D96">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>94</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>1594818323</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>150.58199999999999</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>180.58199999999999</v>
       </c>
-      <c r="H96">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I96">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>94</v>
       </c>
-      <c r="I96">
+      <c r="L96">
         <v>1594818323</v>
       </c>
-      <c r="J96">
+      <c r="M96">
         <v>150.94800000000001</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>180.94800000000001</v>
       </c>
-      <c r="L96">
+      <c r="O96">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1594818312</v>
       </c>
@@ -6671,37 +7563,37 @@
         <v>180.976</v>
       </c>
       <c r="D97">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>95</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>1594818324</v>
-      </c>
-      <c r="F97">
-        <v>180.58199999999999</v>
       </c>
       <c r="G97">
         <v>180.58199999999999</v>
       </c>
       <c r="H97">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+        <v>180.58199999999999</v>
+      </c>
+      <c r="I97">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>95</v>
       </c>
-      <c r="I97">
+      <c r="L97">
         <v>1594818324</v>
       </c>
-      <c r="J97">
+      <c r="M97">
         <v>180.94900000000001</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <v>180.94800000000001</v>
       </c>
-      <c r="L97">
+      <c r="O97">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1594818313</v>
       </c>
@@ -6712,37 +7604,37 @@
         <v>180.976</v>
       </c>
       <c r="D98">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>96</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>1594818325</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>210.58199999999999</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>180.58199999999999</v>
       </c>
-      <c r="H98">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I98">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>96</v>
       </c>
-      <c r="I98">
+      <c r="L98">
         <v>1594818325</v>
       </c>
-      <c r="J98">
+      <c r="M98">
         <v>210.94900000000001</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <v>180.94800000000001</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1594818314</v>
       </c>
@@ -6753,37 +7645,37 @@
         <v>180.976</v>
       </c>
       <c r="D99">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>97</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>1594818326</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>240.58199999999999</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>180.58199999999999</v>
       </c>
-      <c r="H99">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I99">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>97</v>
       </c>
-      <c r="I99">
+      <c r="L99">
         <v>1594818326</v>
       </c>
-      <c r="J99">
+      <c r="M99">
         <v>240.94900000000001</v>
       </c>
-      <c r="K99">
+      <c r="N99">
         <v>180.94800000000001</v>
       </c>
-      <c r="L99">
+      <c r="O99">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1594818315</v>
       </c>
@@ -6794,37 +7686,37 @@
         <v>180.976</v>
       </c>
       <c r="D100">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>98</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>1594818327</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>270.58199999999999</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>180.58199999999999</v>
       </c>
-      <c r="H100">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I100">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>98</v>
       </c>
-      <c r="I100">
+      <c r="L100">
         <v>1594818327</v>
       </c>
-      <c r="J100">
+      <c r="M100">
         <v>270.94900000000001</v>
       </c>
-      <c r="K100">
+      <c r="N100">
         <v>180.94800000000001</v>
       </c>
-      <c r="L100">
+      <c r="O100">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1594818316</v>
       </c>
@@ -6835,37 +7727,37 @@
         <v>180.976</v>
       </c>
       <c r="D101">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>99</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>1594818328</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>300.58199999999999</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>180.58199999999999</v>
       </c>
-      <c r="H101">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I101">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>99</v>
       </c>
-      <c r="I101">
+      <c r="L101">
         <v>1594818328</v>
       </c>
-      <c r="J101">
+      <c r="M101">
         <v>300.94900000000001</v>
       </c>
-      <c r="K101">
+      <c r="N101">
         <v>180.94800000000001</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1594818317</v>
       </c>
@@ -6876,37 +7768,37 @@
         <v>180.976</v>
       </c>
       <c r="D102">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>100</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>1594818329</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>330.58199999999999</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>180.58199999999999</v>
       </c>
-      <c r="H102">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I102">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>100</v>
       </c>
-      <c r="I102">
+      <c r="L102">
         <v>1594818329</v>
       </c>
-      <c r="J102">
+      <c r="M102">
         <v>330.94799999999998</v>
       </c>
-      <c r="K102">
+      <c r="N102">
         <v>180.94800000000001</v>
       </c>
-      <c r="L102">
+      <c r="O102">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1594818318</v>
       </c>
@@ -6917,37 +7809,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D103">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>101</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>1594818330</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>0.44800000000000001</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>180.44800000000001</v>
       </c>
-      <c r="H103">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I103">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>101</v>
       </c>
-      <c r="I103">
+      <c r="L103">
         <v>1594818330</v>
       </c>
-      <c r="J103">
+      <c r="M103">
         <v>0.79300000000000004</v>
       </c>
-      <c r="K103">
+      <c r="N103">
         <v>180.79300000000001</v>
       </c>
-      <c r="L103">
+      <c r="O103">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1594818319</v>
       </c>
@@ -6958,37 +7850,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D104">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>102</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>1594818331</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>30.448</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>180.44800000000001</v>
       </c>
-      <c r="H104">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I104">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>102</v>
       </c>
-      <c r="I104">
+      <c r="L104">
         <v>1594818331</v>
       </c>
-      <c r="J104">
+      <c r="M104">
         <v>30.792999999999999</v>
       </c>
-      <c r="K104">
+      <c r="N104">
         <v>180.79300000000001</v>
       </c>
-      <c r="L104">
+      <c r="O104">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1594818320</v>
       </c>
@@ -6999,37 +7891,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D105">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>103</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>1594818332</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>60.448</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>180.44800000000001</v>
       </c>
-      <c r="H105">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I105">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>103</v>
       </c>
-      <c r="I105">
+      <c r="L105">
         <v>1594818332</v>
       </c>
-      <c r="J105">
+      <c r="M105">
         <v>60.792999999999999</v>
       </c>
-      <c r="K105">
+      <c r="N105">
         <v>180.79300000000001</v>
       </c>
-      <c r="L105">
+      <c r="O105">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1594818321</v>
       </c>
@@ -7040,37 +7932,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D106">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>104</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>1594818333</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>90.447999999999993</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>180.44800000000001</v>
       </c>
-      <c r="H106">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I106">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>104</v>
       </c>
-      <c r="I106">
+      <c r="L106">
         <v>1594818333</v>
       </c>
-      <c r="J106">
+      <c r="M106">
         <v>90.793000000000006</v>
       </c>
-      <c r="K106">
+      <c r="N106">
         <v>180.79300000000001</v>
       </c>
-      <c r="L106">
+      <c r="O106">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1594818322</v>
       </c>
@@ -7081,37 +7973,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D107">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>105</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>1594818334</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>120.44799999999999</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>180.44800000000001</v>
       </c>
-      <c r="H107">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I107">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>105</v>
       </c>
-      <c r="I107">
+      <c r="L107">
         <v>1594818334</v>
       </c>
-      <c r="J107">
+      <c r="M107">
         <v>120.79300000000001</v>
       </c>
-      <c r="K107">
+      <c r="N107">
         <v>180.79300000000001</v>
       </c>
-      <c r="L107">
+      <c r="O107">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1594818323</v>
       </c>
@@ -7122,37 +8014,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D108">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>106</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>1594818335</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>150.44800000000001</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>180.44800000000001</v>
       </c>
-      <c r="H108">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I108">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>106</v>
       </c>
-      <c r="I108">
+      <c r="L108">
         <v>1594818335</v>
       </c>
-      <c r="J108">
+      <c r="M108">
         <v>150.79300000000001</v>
       </c>
-      <c r="K108">
+      <c r="N108">
         <v>180.79300000000001</v>
       </c>
-      <c r="L108">
+      <c r="O108">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1594818324</v>
       </c>
@@ -7163,37 +8055,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D109">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>107</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>1594818336</v>
-      </c>
-      <c r="F109">
-        <v>180.44800000000001</v>
       </c>
       <c r="G109">
         <v>180.44800000000001</v>
       </c>
       <c r="H109">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+        <v>180.44800000000001</v>
+      </c>
+      <c r="I109">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>107</v>
       </c>
-      <c r="I109">
+      <c r="L109">
         <v>1594818336</v>
       </c>
-      <c r="J109">
+      <c r="M109">
         <v>180.79300000000001</v>
       </c>
-      <c r="K109">
+      <c r="N109">
         <v>180.79300000000001</v>
       </c>
-      <c r="L109">
+      <c r="O109">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1594818325</v>
       </c>
@@ -7204,37 +8096,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D110">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>108</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>1594818337</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>210.44800000000001</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>180.44800000000001</v>
       </c>
-      <c r="H110">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I110">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>108</v>
       </c>
-      <c r="I110">
+      <c r="L110">
         <v>1594818337</v>
       </c>
-      <c r="J110">
+      <c r="M110">
         <v>210.79300000000001</v>
       </c>
-      <c r="K110">
+      <c r="N110">
         <v>180.79300000000001</v>
       </c>
-      <c r="L110">
+      <c r="O110">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1594818326</v>
       </c>
@@ -7245,37 +8137,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D111">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>109</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>1594818338</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>240.44800000000001</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>180.44800000000001</v>
       </c>
-      <c r="H111">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I111">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>109</v>
       </c>
-      <c r="I111">
+      <c r="L111">
         <v>1594818338</v>
       </c>
-      <c r="J111">
+      <c r="M111">
         <v>240.79300000000001</v>
       </c>
-      <c r="K111">
+      <c r="N111">
         <v>180.79300000000001</v>
       </c>
-      <c r="L111">
+      <c r="O111">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1594818327</v>
       </c>
@@ -7286,37 +8178,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D112">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>110</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>1594818339</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>270.44799999999998</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>180.44800000000001</v>
       </c>
-      <c r="H112">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I112">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>110</v>
       </c>
-      <c r="I112">
+      <c r="L112">
         <v>1594818339</v>
       </c>
-      <c r="J112">
+      <c r="M112">
         <v>270.79300000000001</v>
       </c>
-      <c r="K112">
+      <c r="N112">
         <v>180.79300000000001</v>
       </c>
-      <c r="L112">
+      <c r="O112">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1594818328</v>
       </c>
@@ -7327,37 +8219,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D113">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>111</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>1594818340</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>300.44799999999998</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>180.44800000000001</v>
       </c>
-      <c r="H113">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I113">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>111</v>
       </c>
-      <c r="I113">
+      <c r="L113">
         <v>1594818340</v>
       </c>
-      <c r="J113">
+      <c r="M113">
         <v>300.79300000000001</v>
       </c>
-      <c r="K113">
+      <c r="N113">
         <v>180.79300000000001</v>
       </c>
-      <c r="L113">
+      <c r="O113">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1594818329</v>
       </c>
@@ -7368,37 +8260,37 @@
         <v>180.92599999999999</v>
       </c>
       <c r="D114">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>112</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>1594818341</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>330.44799999999998</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>180.44800000000001</v>
       </c>
-      <c r="H114">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I114">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>112</v>
       </c>
-      <c r="I114">
+      <c r="L114">
         <v>1594818341</v>
       </c>
-      <c r="J114">
+      <c r="M114">
         <v>330.79300000000001</v>
       </c>
-      <c r="K114">
+      <c r="N114">
         <v>180.79300000000001</v>
       </c>
-      <c r="L114">
+      <c r="O114">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1594818330</v>
       </c>
@@ -7409,37 +8301,37 @@
         <v>180.82499999999999</v>
       </c>
       <c r="D115">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>113</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>1594818342</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>180.386</v>
       </c>
-      <c r="H115">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I115">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>113</v>
       </c>
-      <c r="I115">
+      <c r="L115">
         <v>1594818342</v>
       </c>
-      <c r="J115">
+      <c r="M115">
         <v>0.64100000000000001</v>
       </c>
-      <c r="K115">
+      <c r="N115">
         <v>180.64099999999999</v>
       </c>
-      <c r="L115">
+      <c r="O115">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1594818331</v>
       </c>
@@ -7450,37 +8342,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D116">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>114</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>1594818343</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>30.167000000000002</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>180.166</v>
       </c>
-      <c r="H116">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I116">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>114</v>
       </c>
-      <c r="I116">
+      <c r="L116">
         <v>1594818343</v>
       </c>
-      <c r="J116">
+      <c r="M116">
         <v>30.640999999999998</v>
       </c>
-      <c r="K116">
+      <c r="N116">
         <v>180.64099999999999</v>
       </c>
-      <c r="L116">
+      <c r="O116">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1594818332</v>
       </c>
@@ -7491,37 +8383,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D117">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>115</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>1594818344</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>60.167000000000002</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>180.166</v>
       </c>
-      <c r="H117">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I117">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>115</v>
       </c>
-      <c r="I117">
+      <c r="L117">
         <v>1594818344</v>
       </c>
-      <c r="J117">
+      <c r="M117">
         <v>60.640999999999998</v>
       </c>
-      <c r="K117">
+      <c r="N117">
         <v>180.64099999999999</v>
       </c>
-      <c r="L117">
+      <c r="O117">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1594818333</v>
       </c>
@@ -7532,37 +8424,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D118">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>116</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>1594818345</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>90.165999999999997</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>180.166</v>
       </c>
-      <c r="H118">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I118">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>116</v>
       </c>
-      <c r="I118">
+      <c r="L118">
         <v>1594818345</v>
       </c>
-      <c r="J118">
+      <c r="M118">
         <v>90.641000000000005</v>
       </c>
-      <c r="K118">
+      <c r="N118">
         <v>180.64099999999999</v>
       </c>
-      <c r="L118">
+      <c r="O118">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1594818334</v>
       </c>
@@ -7573,37 +8465,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D119">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>117</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>1594818346</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>120.167</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>180.166</v>
       </c>
-      <c r="H119">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I119">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>117</v>
       </c>
-      <c r="I119">
+      <c r="L119">
         <v>1594818346</v>
       </c>
-      <c r="J119">
+      <c r="M119">
         <v>120.64100000000001</v>
       </c>
-      <c r="K119">
+      <c r="N119">
         <v>180.64099999999999</v>
       </c>
-      <c r="L119">
+      <c r="O119">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1594818335</v>
       </c>
@@ -7614,37 +8506,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D120">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>118</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>1594818347</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>150.166</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>180.166</v>
       </c>
-      <c r="H120">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I120">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>118</v>
       </c>
-      <c r="I120">
+      <c r="L120">
         <v>1594818347</v>
       </c>
-      <c r="J120">
+      <c r="M120">
         <v>150.64099999999999</v>
       </c>
-      <c r="K120">
+      <c r="N120">
         <v>180.64099999999999</v>
       </c>
-      <c r="L120">
+      <c r="O120">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1594818336</v>
       </c>
@@ -7655,37 +8547,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D121">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>119</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>1594818348</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>180.167</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>180.166</v>
       </c>
-      <c r="H121">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I121">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>119</v>
       </c>
-      <c r="I121">
+      <c r="L121">
         <v>1594818348</v>
       </c>
-      <c r="J121">
+      <c r="M121">
         <v>180.64099999999999</v>
       </c>
-      <c r="K121">
+      <c r="N121">
         <v>180.64099999999999</v>
       </c>
-      <c r="L121">
+      <c r="O121">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1594818337</v>
       </c>
@@ -7696,37 +8588,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D122">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>120</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>1594818349</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>210.167</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>180.166</v>
       </c>
-      <c r="H122">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I122">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>120</v>
       </c>
-      <c r="I122">
+      <c r="L122">
         <v>1594818349</v>
       </c>
-      <c r="J122">
+      <c r="M122">
         <v>210.64099999999999</v>
       </c>
-      <c r="K122">
+      <c r="N122">
         <v>180.64099999999999</v>
       </c>
-      <c r="L122">
+      <c r="O122">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1594818338</v>
       </c>
@@ -7737,37 +8629,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D123">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>121</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>1594818350</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>240.166</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>180.166</v>
       </c>
-      <c r="H123">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I123">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>121</v>
       </c>
-      <c r="I123">
+      <c r="L123">
         <v>1594818350</v>
       </c>
-      <c r="J123">
+      <c r="M123">
         <v>240.642</v>
       </c>
-      <c r="K123">
+      <c r="N123">
         <v>180.64099999999999</v>
       </c>
-      <c r="L123">
+      <c r="O123">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1594818339</v>
       </c>
@@ -7778,37 +8670,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D124">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>122</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>1594818351</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>270.16699999999997</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>180.166</v>
       </c>
-      <c r="H124">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I124">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>122</v>
       </c>
-      <c r="I124">
+      <c r="L124">
         <v>1594818351</v>
       </c>
-      <c r="J124">
+      <c r="M124">
         <v>270.642</v>
       </c>
-      <c r="K124">
+      <c r="N124">
         <v>180.64099999999999</v>
       </c>
-      <c r="L124">
+      <c r="O124">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1594818340</v>
       </c>
@@ -7819,37 +8711,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D125">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>123</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>1594818352</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>300.16699999999997</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>180.166</v>
       </c>
-      <c r="H125">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I125">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>123</v>
       </c>
-      <c r="I125">
+      <c r="L125">
         <v>1594818352</v>
       </c>
-      <c r="J125">
+      <c r="M125">
         <v>300.64100000000002</v>
       </c>
-      <c r="K125">
+      <c r="N125">
         <v>180.64099999999999</v>
       </c>
-      <c r="L125">
+      <c r="O125">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1594818341</v>
       </c>
@@ -7860,37 +8752,37 @@
         <v>180.13499999999999</v>
       </c>
       <c r="D126">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>124</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>1594818353</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>330.16699999999997</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>180.166</v>
       </c>
-      <c r="H126">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I126">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>124</v>
       </c>
-      <c r="I126">
+      <c r="L126">
         <v>1594818353</v>
       </c>
-      <c r="J126">
+      <c r="M126">
         <v>330.64100000000002</v>
       </c>
-      <c r="K126">
+      <c r="N126">
         <v>180.64099999999999</v>
       </c>
-      <c r="L126">
+      <c r="O126">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1594818342</v>
       </c>
@@ -7901,37 +8793,37 @@
         <v>180.404</v>
       </c>
       <c r="D127">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>125</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>1594818354</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>0.15</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>180.149</v>
       </c>
-      <c r="H127">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I127">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>125</v>
       </c>
-      <c r="I127">
+      <c r="L127">
         <v>1594818354</v>
       </c>
-      <c r="J127">
+      <c r="M127">
         <v>0.435</v>
       </c>
-      <c r="K127">
+      <c r="N127">
         <v>180.435</v>
       </c>
-      <c r="L127">
+      <c r="O127">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1594818343</v>
       </c>
@@ -7942,37 +8834,37 @@
         <v>180.404</v>
       </c>
       <c r="D128">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>126</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>1594818355</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>30.064</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>180.06299999999999</v>
       </c>
-      <c r="H128">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I128">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>126</v>
       </c>
-      <c r="I128">
+      <c r="L128">
         <v>1594818355</v>
       </c>
-      <c r="J128">
+      <c r="M128">
         <v>30.434999999999999</v>
       </c>
-      <c r="K128">
+      <c r="N128">
         <v>180.435</v>
       </c>
-      <c r="L128">
+      <c r="O128">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1594818344</v>
       </c>
@@ -7983,37 +8875,37 @@
         <v>180.404</v>
       </c>
       <c r="D129">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>127</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>1594818356</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>60.063000000000002</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>180.06299999999999</v>
       </c>
-      <c r="H129">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I129">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>127</v>
       </c>
-      <c r="I129">
+      <c r="L129">
         <v>1594818356</v>
       </c>
-      <c r="J129">
+      <c r="M129">
         <v>60.435000000000002</v>
       </c>
-      <c r="K129">
+      <c r="N129">
         <v>180.435</v>
       </c>
-      <c r="L129">
+      <c r="O129">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1594818345</v>
       </c>
@@ -8024,37 +8916,37 @@
         <v>180.404</v>
       </c>
       <c r="D130">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>128</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>1594818357</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>90.063000000000002</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>180.06299999999999</v>
       </c>
-      <c r="H130">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I130">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>128</v>
       </c>
-      <c r="I130">
+      <c r="L130">
         <v>1594818357</v>
       </c>
-      <c r="J130">
+      <c r="M130">
         <v>90.435000000000002</v>
       </c>
-      <c r="K130">
+      <c r="N130">
         <v>180.435</v>
       </c>
-      <c r="L130">
+      <c r="O130">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1594818346</v>
       </c>
@@ -8065,37 +8957,37 @@
         <v>180.404</v>
       </c>
       <c r="D131">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>129</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>1594818358</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>120.063</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>180.06299999999999</v>
       </c>
-      <c r="H131">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I131">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>129</v>
       </c>
-      <c r="I131">
+      <c r="L131">
         <v>1594818358</v>
       </c>
-      <c r="J131">
+      <c r="M131">
         <v>120.435</v>
       </c>
-      <c r="K131">
+      <c r="N131">
         <v>180.435</v>
       </c>
-      <c r="L131">
+      <c r="O131">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1594818347</v>
       </c>
@@ -8106,37 +8998,37 @@
         <v>180.404</v>
       </c>
       <c r="D132">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>130</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>1594818359</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>150.06299999999999</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>180.06299999999999</v>
       </c>
-      <c r="H132">
-        <f>citytest1[[#This Row],[Column1]]-1594818229</f>
+      <c r="I132">
+        <f>citytest1[[#This Row],[time]]-1594818229</f>
         <v>130</v>
       </c>
-      <c r="I132">
+      <c r="L132">
         <v>1594818359</v>
       </c>
-      <c r="J132">
+      <c r="M132">
         <v>150.435</v>
       </c>
-      <c r="K132">
+      <c r="N132">
         <v>180.435</v>
       </c>
-      <c r="L132">
+      <c r="O132">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1594818348</v>
       </c>
@@ -8147,11 +9039,11 @@
         <v>180.404</v>
       </c>
       <c r="D133">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1594818349</v>
       </c>
@@ -8162,11 +9054,11 @@
         <v>180.404</v>
       </c>
       <c r="D134">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1594818350</v>
       </c>
@@ -8177,11 +9069,11 @@
         <v>180.404</v>
       </c>
       <c r="D135">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1594818351</v>
       </c>
@@ -8192,11 +9084,11 @@
         <v>180.404</v>
       </c>
       <c r="D136">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1594818352</v>
       </c>
@@ -8207,11 +9099,11 @@
         <v>180.404</v>
       </c>
       <c r="D137">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1594818353</v>
       </c>
@@ -8222,11 +9114,11 @@
         <v>180.404</v>
       </c>
       <c r="D138">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1594818354</v>
       </c>
@@ -8237,11 +9129,11 @@
         <v>180.392</v>
       </c>
       <c r="D139">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1594818355</v>
       </c>
@@ -8252,11 +9144,11 @@
         <v>179.578</v>
       </c>
       <c r="D140">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1594818356</v>
       </c>
@@ -8267,11 +9159,11 @@
         <v>179.578</v>
       </c>
       <c r="D141">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1594818357</v>
       </c>
@@ -8282,11 +9174,11 @@
         <v>179.578</v>
       </c>
       <c r="D142">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1594818358</v>
       </c>
@@ -8297,7 +9189,7 @@
         <v>179.578</v>
       </c>
       <c r="D143">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>141</v>
       </c>
     </row>
@@ -8313,10 +9205,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4A8D0-6D45-45FA-8C4A-EF9D811F31D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4630B910-EA24-4399-AB8A-A0F56D1C986D}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
@@ -8347,7 +9253,7 @@
         <v>270</v>
       </c>
       <c r="D2">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>0</v>
       </c>
     </row>
@@ -8362,7 +9268,7 @@
         <v>270</v>
       </c>
       <c r="D3">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>1</v>
       </c>
     </row>
@@ -8377,7 +9283,7 @@
         <v>270</v>
       </c>
       <c r="D4">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>2</v>
       </c>
     </row>
@@ -8392,7 +9298,7 @@
         <v>270</v>
       </c>
       <c r="D5">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>3</v>
       </c>
     </row>
@@ -8407,7 +9313,7 @@
         <v>270</v>
       </c>
       <c r="D6">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>4</v>
       </c>
     </row>
@@ -8422,7 +9328,7 @@
         <v>270</v>
       </c>
       <c r="D7">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>5</v>
       </c>
     </row>
@@ -8437,7 +9343,7 @@
         <v>270</v>
       </c>
       <c r="D8">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>6</v>
       </c>
     </row>
@@ -8452,7 +9358,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D9">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>7</v>
       </c>
     </row>
@@ -8467,7 +9373,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D10">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>8</v>
       </c>
     </row>
@@ -8482,7 +9388,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D11">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>9</v>
       </c>
     </row>
@@ -8497,7 +9403,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D12">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>10</v>
       </c>
     </row>
@@ -8512,7 +9418,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D13">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>11</v>
       </c>
     </row>
@@ -8527,7 +9433,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D14">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>12</v>
       </c>
     </row>
@@ -8542,7 +9448,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D15">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>13</v>
       </c>
     </row>
@@ -8557,7 +9463,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D16">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>14</v>
       </c>
     </row>
@@ -8572,7 +9478,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D17">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>15</v>
       </c>
     </row>
@@ -8587,7 +9493,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D18">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>16</v>
       </c>
     </row>
@@ -8602,7 +9508,7 @@
         <v>205.66399999999999</v>
       </c>
       <c r="D19">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>17</v>
       </c>
     </row>
@@ -8617,7 +9523,7 @@
         <v>184.279</v>
       </c>
       <c r="D20">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>18</v>
       </c>
     </row>
@@ -8632,7 +9538,7 @@
         <v>184.279</v>
       </c>
       <c r="D21">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>19</v>
       </c>
     </row>
@@ -8647,7 +9553,7 @@
         <v>184.279</v>
       </c>
       <c r="D22">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>20</v>
       </c>
     </row>
@@ -8662,7 +9568,7 @@
         <v>184.279</v>
       </c>
       <c r="D23">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>21</v>
       </c>
     </row>
@@ -8677,7 +9583,7 @@
         <v>184.279</v>
       </c>
       <c r="D24">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>22</v>
       </c>
     </row>
@@ -8692,7 +9598,7 @@
         <v>184.279</v>
       </c>
       <c r="D25">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>23</v>
       </c>
     </row>
@@ -8707,7 +9613,7 @@
         <v>184.279</v>
       </c>
       <c r="D26">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>24</v>
       </c>
     </row>
@@ -8722,7 +9628,7 @@
         <v>184.279</v>
       </c>
       <c r="D27">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>25</v>
       </c>
     </row>
@@ -8737,7 +9643,7 @@
         <v>184.279</v>
       </c>
       <c r="D28">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>26</v>
       </c>
     </row>
@@ -8752,7 +9658,7 @@
         <v>184.279</v>
       </c>
       <c r="D29">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>27</v>
       </c>
     </row>
@@ -8767,7 +9673,7 @@
         <v>184.279</v>
       </c>
       <c r="D30">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>28</v>
       </c>
     </row>
@@ -8782,7 +9688,7 @@
         <v>182.49</v>
       </c>
       <c r="D31">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>29</v>
       </c>
     </row>
@@ -8797,7 +9703,7 @@
         <v>182.49</v>
       </c>
       <c r="D32">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>30</v>
       </c>
     </row>
@@ -8812,7 +9718,7 @@
         <v>182.49</v>
       </c>
       <c r="D33">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>31</v>
       </c>
     </row>
@@ -8827,7 +9733,7 @@
         <v>182.49</v>
       </c>
       <c r="D34">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>32</v>
       </c>
     </row>
@@ -8842,7 +9748,7 @@
         <v>182.49</v>
       </c>
       <c r="D35">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>33</v>
       </c>
     </row>
@@ -8857,7 +9763,7 @@
         <v>182.49</v>
       </c>
       <c r="D36">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>34</v>
       </c>
     </row>
@@ -8872,7 +9778,7 @@
         <v>182.49</v>
       </c>
       <c r="D37">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>35</v>
       </c>
     </row>
@@ -8887,7 +9793,7 @@
         <v>182.49</v>
       </c>
       <c r="D38">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>36</v>
       </c>
     </row>
@@ -8902,7 +9808,7 @@
         <v>182.49</v>
       </c>
       <c r="D39">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>37</v>
       </c>
     </row>
@@ -8917,7 +9823,7 @@
         <v>182.49</v>
       </c>
       <c r="D40">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>38</v>
       </c>
     </row>
@@ -8932,7 +9838,7 @@
         <v>182.49</v>
       </c>
       <c r="D41">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>39</v>
       </c>
     </row>
@@ -8947,7 +9853,7 @@
         <v>182.49</v>
       </c>
       <c r="D42">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>40</v>
       </c>
     </row>
@@ -8962,7 +9868,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D43">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>41</v>
       </c>
     </row>
@@ -8977,7 +9883,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D44">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>42</v>
       </c>
     </row>
@@ -8992,7 +9898,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D45">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>43</v>
       </c>
     </row>
@@ -9007,7 +9913,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D46">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>44</v>
       </c>
     </row>
@@ -9022,7 +9928,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D47">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>45</v>
       </c>
     </row>
@@ -9037,7 +9943,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D48">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>46</v>
       </c>
     </row>
@@ -9052,7 +9958,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D49">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>47</v>
       </c>
     </row>
@@ -9067,7 +9973,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D50">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>48</v>
       </c>
     </row>
@@ -9082,7 +9988,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D51">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>49</v>
       </c>
     </row>
@@ -9097,7 +10003,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D52">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>50</v>
       </c>
     </row>
@@ -9112,7 +10018,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D53">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>51</v>
       </c>
     </row>
@@ -9127,7 +10033,7 @@
         <v>181.84100000000001</v>
       </c>
       <c r="D54">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>52</v>
       </c>
     </row>
@@ -9142,7 +10048,7 @@
         <v>181.535</v>
       </c>
       <c r="D55">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>53</v>
       </c>
     </row>
@@ -9157,7 +10063,7 @@
         <v>181.535</v>
       </c>
       <c r="D56">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>54</v>
       </c>
     </row>
@@ -9172,7 +10078,7 @@
         <v>181.535</v>
       </c>
       <c r="D57">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>55</v>
       </c>
     </row>
@@ -9187,7 +10093,7 @@
         <v>181.535</v>
       </c>
       <c r="D58">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>56</v>
       </c>
     </row>
@@ -9202,7 +10108,7 @@
         <v>181.535</v>
       </c>
       <c r="D59">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>57</v>
       </c>
     </row>
@@ -9217,7 +10123,7 @@
         <v>181.535</v>
       </c>
       <c r="D60">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>58</v>
       </c>
     </row>
@@ -9232,7 +10138,7 @@
         <v>181.535</v>
       </c>
       <c r="D61">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>59</v>
       </c>
     </row>
@@ -9247,7 +10153,7 @@
         <v>181.535</v>
       </c>
       <c r="D62">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>60</v>
       </c>
     </row>
@@ -9262,7 +10168,7 @@
         <v>181.535</v>
       </c>
       <c r="D63">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>61</v>
       </c>
     </row>
@@ -9277,7 +10183,7 @@
         <v>181.535</v>
       </c>
       <c r="D64">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>62</v>
       </c>
     </row>
@@ -9292,7 +10198,7 @@
         <v>181.535</v>
       </c>
       <c r="D65">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>63</v>
       </c>
     </row>
@@ -9307,7 +10213,7 @@
         <v>181.535</v>
       </c>
       <c r="D66">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>64</v>
       </c>
     </row>
@@ -9322,7 +10228,7 @@
         <v>181.327</v>
       </c>
       <c r="D67">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>65</v>
       </c>
     </row>
@@ -9337,7 +10243,7 @@
         <v>181.327</v>
       </c>
       <c r="D68">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>66</v>
       </c>
     </row>
@@ -9352,7 +10258,7 @@
         <v>181.327</v>
       </c>
       <c r="D69">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>67</v>
       </c>
     </row>
@@ -9367,7 +10273,7 @@
         <v>181.327</v>
       </c>
       <c r="D70">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>68</v>
       </c>
     </row>
@@ -9382,7 +10288,7 @@
         <v>181.327</v>
       </c>
       <c r="D71">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>69</v>
       </c>
     </row>
@@ -9397,7 +10303,7 @@
         <v>181.327</v>
       </c>
       <c r="D72">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>70</v>
       </c>
     </row>
@@ -9412,7 +10318,7 @@
         <v>181.327</v>
       </c>
       <c r="D73">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>71</v>
       </c>
     </row>
@@ -9427,7 +10333,7 @@
         <v>181.327</v>
       </c>
       <c r="D74">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>72</v>
       </c>
     </row>
@@ -9442,7 +10348,7 @@
         <v>181.327</v>
       </c>
       <c r="D75">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>73</v>
       </c>
     </row>
@@ -9457,7 +10363,7 @@
         <v>181.327</v>
       </c>
       <c r="D76">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>74</v>
       </c>
     </row>
@@ -9472,7 +10378,7 @@
         <v>181.327</v>
       </c>
       <c r="D77">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>75</v>
       </c>
     </row>
@@ -9487,7 +10393,7 @@
         <v>181.327</v>
       </c>
       <c r="D78">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>76</v>
       </c>
     </row>
@@ -9502,7 +10408,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D79">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>77</v>
       </c>
     </row>
@@ -9517,7 +10423,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D80">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>78</v>
       </c>
     </row>
@@ -9532,7 +10438,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D81">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>79</v>
       </c>
     </row>
@@ -9547,7 +10453,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D82">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>80</v>
       </c>
     </row>
@@ -9562,7 +10468,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D83">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>81</v>
       </c>
     </row>
@@ -9577,7 +10483,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D84">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>82</v>
       </c>
     </row>
@@ -9592,7 +10498,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D85">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>83</v>
       </c>
     </row>
@@ -9607,7 +10513,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D86">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>84</v>
       </c>
     </row>
@@ -9622,7 +10528,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D87">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>85</v>
       </c>
     </row>
@@ -9637,7 +10543,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D88">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>86</v>
       </c>
     </row>
@@ -9652,7 +10558,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D89">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>87</v>
       </c>
     </row>
@@ -9667,7 +10573,7 @@
         <v>181.11199999999999</v>
       </c>
       <c r="D90">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>88</v>
       </c>
     </row>
@@ -9682,7 +10588,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D91">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>89</v>
       </c>
     </row>
@@ -9697,7 +10603,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D92">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>90</v>
       </c>
     </row>
@@ -9712,7 +10618,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D93">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>91</v>
       </c>
     </row>
@@ -9727,7 +10633,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D94">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>92</v>
       </c>
     </row>
@@ -9742,7 +10648,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D95">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>93</v>
       </c>
     </row>
@@ -9757,7 +10663,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D96">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>94</v>
       </c>
     </row>
@@ -9772,7 +10678,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D97">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>95</v>
       </c>
     </row>
@@ -9787,7 +10693,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D98">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>96</v>
       </c>
     </row>
@@ -9802,7 +10708,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D99">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>97</v>
       </c>
     </row>
@@ -9817,7 +10723,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D100">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>98</v>
       </c>
     </row>
@@ -9832,7 +10738,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D101">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>99</v>
       </c>
     </row>
@@ -9847,7 +10753,7 @@
         <v>180.94800000000001</v>
       </c>
       <c r="D102">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>100</v>
       </c>
     </row>
@@ -9862,7 +10768,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D103">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>101</v>
       </c>
     </row>
@@ -9877,7 +10783,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D104">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>102</v>
       </c>
     </row>
@@ -9892,7 +10798,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D105">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>103</v>
       </c>
     </row>
@@ -9907,7 +10813,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D106">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>104</v>
       </c>
     </row>
@@ -9922,7 +10828,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D107">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>105</v>
       </c>
     </row>
@@ -9937,7 +10843,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D108">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>106</v>
       </c>
     </row>
@@ -9952,7 +10858,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D109">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>107</v>
       </c>
     </row>
@@ -9967,7 +10873,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D110">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>108</v>
       </c>
     </row>
@@ -9982,7 +10888,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D111">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>109</v>
       </c>
     </row>
@@ -9997,7 +10903,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D112">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>110</v>
       </c>
     </row>
@@ -10012,7 +10918,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D113">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>111</v>
       </c>
     </row>
@@ -10027,7 +10933,7 @@
         <v>180.79300000000001</v>
       </c>
       <c r="D114">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>112</v>
       </c>
     </row>
@@ -10042,7 +10948,7 @@
         <v>180.64099999999999</v>
       </c>
       <c r="D115">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>113</v>
       </c>
     </row>
@@ -10057,7 +10963,7 @@
         <v>180.64099999999999</v>
       </c>
       <c r="D116">
-        <f>bridgetest1[[#This Row],[Column1]]-1594818217</f>
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>114</v>
       </c>
     </row>

--- a/Data_Files/data sheet.xlsx
+++ b/Data_Files/data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\SPRI2020_Roomba\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FBC7CE-EBF7-4FF2-A62A-3866FA089DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12EBC6C-794C-43BA-91DF-49B608018FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -194,8 +194,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2793,7 +2793,7 @@
   <dimension ref="A1:X143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,7 +2806,7 @@
     <col min="24" max="24" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2843,29 +2843,8 @@
       <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1594818217</v>
       </c>
@@ -2905,30 +2884,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>0</v>
       </c>
-      <c r="R2" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>351.79500000000002</v>
-      </c>
-      <c r="T2" s="9">
-        <v>90</v>
-      </c>
-      <c r="U2" s="3">
-        <v>364.96</v>
-      </c>
-      <c r="V2" s="7">
-        <v>180</v>
-      </c>
-      <c r="W2" s="3">
-        <v>479.30500000000001</v>
-      </c>
-      <c r="X2" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1594818218</v>
       </c>
@@ -2968,30 +2925,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>1</v>
       </c>
-      <c r="R3" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="5">
-        <v>351.80200000000002</v>
-      </c>
-      <c r="T3" s="10">
-        <v>90</v>
-      </c>
-      <c r="U3" s="5">
-        <v>4.9740000000000002</v>
-      </c>
-      <c r="V3" s="8">
-        <v>180</v>
-      </c>
-      <c r="W3" s="5">
-        <v>119.32</v>
-      </c>
-      <c r="X3" s="10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1594818219</v>
       </c>
@@ -3031,30 +2966,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>2</v>
       </c>
-      <c r="R4" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>2</v>
-      </c>
-      <c r="S4" s="3">
-        <v>351.80599999999998</v>
-      </c>
-      <c r="T4" s="9">
-        <v>90</v>
-      </c>
-      <c r="U4" s="3">
-        <v>4.9790000000000001</v>
-      </c>
-      <c r="V4" s="7">
-        <v>180</v>
-      </c>
-      <c r="W4" s="3">
-        <v>119.325</v>
-      </c>
-      <c r="X4" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1594818220</v>
       </c>
@@ -3094,30 +3007,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>3</v>
       </c>
-      <c r="R5" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>3</v>
-      </c>
-      <c r="S5" s="5">
-        <v>351.81</v>
-      </c>
-      <c r="T5" s="10">
-        <v>90</v>
-      </c>
-      <c r="U5" s="5">
-        <v>4.9829999999999997</v>
-      </c>
-      <c r="V5" s="8">
-        <v>180</v>
-      </c>
-      <c r="W5" s="5">
-        <v>119.33</v>
-      </c>
-      <c r="X5" s="10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1594818221</v>
       </c>
@@ -3157,30 +3048,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>4</v>
       </c>
-      <c r="R6" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>4</v>
-      </c>
-      <c r="S6" s="3">
-        <v>351.815</v>
-      </c>
-      <c r="T6" s="9">
-        <v>90</v>
-      </c>
-      <c r="U6" s="3">
-        <v>4.9870000000000001</v>
-      </c>
-      <c r="V6" s="7">
-        <v>180</v>
-      </c>
-      <c r="W6" s="3">
-        <v>119.334</v>
-      </c>
-      <c r="X6" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1594818222</v>
       </c>
@@ -3220,30 +3089,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>5</v>
       </c>
-      <c r="R7" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>5</v>
-      </c>
-      <c r="S7" s="5">
-        <v>351.81900000000002</v>
-      </c>
-      <c r="T7" s="10">
-        <v>90</v>
-      </c>
-      <c r="U7" s="5">
-        <v>4.9930000000000003</v>
-      </c>
-      <c r="V7" s="8">
-        <v>180</v>
-      </c>
-      <c r="W7" s="5">
-        <v>119.33799999999999</v>
-      </c>
-      <c r="X7" s="10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1594818223</v>
       </c>
@@ -3283,30 +3130,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>6</v>
       </c>
-      <c r="R8" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>6</v>
-      </c>
-      <c r="S8" s="3">
-        <v>351.82299999999998</v>
-      </c>
-      <c r="T8" s="9">
-        <v>90</v>
-      </c>
-      <c r="U8" s="3">
-        <v>15.112</v>
-      </c>
-      <c r="V8" s="7">
-        <v>165.11099999999999</v>
-      </c>
-      <c r="W8" s="3">
-        <v>120.001</v>
-      </c>
-      <c r="X8" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1594818224</v>
       </c>
@@ -3346,30 +3171,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>7</v>
       </c>
-      <c r="R9" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>7</v>
-      </c>
-      <c r="S9" s="5">
-        <v>351.827</v>
-      </c>
-      <c r="T9" s="10">
-        <v>90</v>
-      </c>
-      <c r="U9" s="5">
-        <v>33.091000000000001</v>
-      </c>
-      <c r="V9" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="W9" s="5">
-        <v>85.664000000000001</v>
-      </c>
-      <c r="X9" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1594818225</v>
       </c>
@@ -3409,30 +3212,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>8</v>
       </c>
-      <c r="R10" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>8</v>
-      </c>
-      <c r="S10" s="3">
-        <v>360</v>
-      </c>
-      <c r="T10" s="9">
-        <v>90</v>
-      </c>
-      <c r="U10" s="3">
-        <v>63.09</v>
-      </c>
-      <c r="V10" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="W10" s="3">
-        <v>115.664</v>
-      </c>
-      <c r="X10" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1594818226</v>
       </c>
@@ -3472,30 +3253,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>9</v>
       </c>
-      <c r="R11" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>9</v>
-      </c>
-      <c r="S11" s="5">
-        <v>30</v>
-      </c>
-      <c r="T11" s="10">
-        <v>90</v>
-      </c>
-      <c r="U11" s="5">
-        <v>93.09</v>
-      </c>
-      <c r="V11" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="W11" s="5">
-        <v>145.66399999999999</v>
-      </c>
-      <c r="X11" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1594818227</v>
       </c>
@@ -3535,30 +3294,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>10</v>
       </c>
-      <c r="R12" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>10</v>
-      </c>
-      <c r="S12" s="3">
-        <v>60</v>
-      </c>
-      <c r="T12" s="9">
-        <v>90</v>
-      </c>
-      <c r="U12" s="3">
-        <v>123.09</v>
-      </c>
-      <c r="V12" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="W12" s="3">
-        <v>175.66399999999999</v>
-      </c>
-      <c r="X12" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1594818228</v>
       </c>
@@ -3598,30 +3335,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>11</v>
       </c>
-      <c r="R13" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>11</v>
-      </c>
-      <c r="S13" s="5">
-        <v>90</v>
-      </c>
-      <c r="T13" s="10">
-        <v>90</v>
-      </c>
-      <c r="U13" s="5">
-        <v>153.09</v>
-      </c>
-      <c r="V13" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="W13" s="5">
-        <v>205.66399999999999</v>
-      </c>
-      <c r="X13" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1594818229</v>
       </c>
@@ -3661,30 +3376,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>12</v>
       </c>
-      <c r="R14" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>12</v>
-      </c>
-      <c r="S14" s="3">
-        <v>120.001</v>
-      </c>
-      <c r="T14" s="9">
-        <v>90</v>
-      </c>
-      <c r="U14" s="3">
-        <v>183.09</v>
-      </c>
-      <c r="V14" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="W14" s="3">
-        <v>235.66399999999999</v>
-      </c>
-      <c r="X14" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1594818230</v>
       </c>
@@ -3724,30 +3417,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>13</v>
       </c>
-      <c r="R15" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>13</v>
-      </c>
-      <c r="S15" s="5">
-        <v>150</v>
-      </c>
-      <c r="T15" s="10">
-        <v>90</v>
-      </c>
-      <c r="U15" s="5">
-        <v>213.09</v>
-      </c>
-      <c r="V15" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="W15" s="5">
-        <v>265.66399999999999</v>
-      </c>
-      <c r="X15" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1594818231</v>
       </c>
@@ -3787,30 +3458,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>14</v>
       </c>
-      <c r="R16" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>14</v>
-      </c>
-      <c r="S16" s="3">
-        <v>180</v>
-      </c>
-      <c r="T16" s="9">
-        <v>90</v>
-      </c>
-      <c r="U16" s="3">
-        <v>243.09</v>
-      </c>
-      <c r="V16" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="W16" s="3">
-        <v>295.66399999999999</v>
-      </c>
-      <c r="X16" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1594818232</v>
       </c>
@@ -3850,30 +3499,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>15</v>
       </c>
-      <c r="R17" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>15</v>
-      </c>
-      <c r="S17" s="5">
-        <v>210</v>
-      </c>
-      <c r="T17" s="10">
-        <v>90</v>
-      </c>
-      <c r="U17" s="5">
-        <v>273.08999999999997</v>
-      </c>
-      <c r="V17" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="W17" s="5">
-        <v>325.66399999999999</v>
-      </c>
-      <c r="X17" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1594818233</v>
       </c>
@@ -3913,30 +3540,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>16</v>
       </c>
-      <c r="R18" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>16</v>
-      </c>
-      <c r="S18" s="3">
-        <v>240</v>
-      </c>
-      <c r="T18" s="9">
-        <v>90</v>
-      </c>
-      <c r="U18" s="3">
-        <v>303.08999999999997</v>
-      </c>
-      <c r="V18" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="W18" s="3">
-        <v>355.66399999999999</v>
-      </c>
-      <c r="X18" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1594818234</v>
       </c>
@@ -3976,30 +3581,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>17</v>
       </c>
-      <c r="R19" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>17</v>
-      </c>
-      <c r="S19" s="5">
-        <v>270.00099999999998</v>
-      </c>
-      <c r="T19" s="10">
-        <v>90</v>
-      </c>
-      <c r="U19" s="5">
-        <v>359.14100000000002</v>
-      </c>
-      <c r="V19" s="8">
-        <v>179.14099999999999</v>
-      </c>
-      <c r="W19" s="5">
-        <v>25.664000000000001</v>
-      </c>
-      <c r="X19" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1594818235</v>
       </c>
@@ -4039,30 +3622,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>18</v>
       </c>
-      <c r="R20" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>18</v>
-      </c>
-      <c r="S20" s="3">
-        <v>351.50700000000001</v>
-      </c>
-      <c r="T20" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U20" s="3">
-        <v>27.521000000000001</v>
-      </c>
-      <c r="V20" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W20" s="3">
-        <v>34.28</v>
-      </c>
-      <c r="X20" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1594818236</v>
       </c>
@@ -4102,30 +3663,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>19</v>
       </c>
-      <c r="R21" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>19</v>
-      </c>
-      <c r="S21" s="5">
-        <v>21.507999999999999</v>
-      </c>
-      <c r="T21" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U21" s="5">
-        <v>57.521000000000001</v>
-      </c>
-      <c r="V21" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W21" s="5">
-        <v>64.28</v>
-      </c>
-      <c r="X21" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1594818237</v>
       </c>
@@ -4165,30 +3704,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>20</v>
       </c>
-      <c r="R22" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>20</v>
-      </c>
-      <c r="S22" s="3">
-        <v>51.508000000000003</v>
-      </c>
-      <c r="T22" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U22" s="3">
-        <v>87.521000000000001</v>
-      </c>
-      <c r="V22" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W22" s="3">
-        <v>94.28</v>
-      </c>
-      <c r="X22" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1594818238</v>
       </c>
@@ -4228,30 +3745,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>21</v>
       </c>
-      <c r="R23" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>21</v>
-      </c>
-      <c r="S23" s="5">
-        <v>81.507999999999996</v>
-      </c>
-      <c r="T23" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U23" s="5">
-        <v>117.52200000000001</v>
-      </c>
-      <c r="V23" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W23" s="5">
-        <v>124.28</v>
-      </c>
-      <c r="X23" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1594818239</v>
       </c>
@@ -4291,30 +3786,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>22</v>
       </c>
-      <c r="R24" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>22</v>
-      </c>
-      <c r="S24" s="3">
-        <v>111.508</v>
-      </c>
-      <c r="T24" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U24" s="3">
-        <v>147.52199999999999</v>
-      </c>
-      <c r="V24" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W24" s="3">
-        <v>154.28</v>
-      </c>
-      <c r="X24" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1594818240</v>
       </c>
@@ -4354,30 +3827,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>23</v>
       </c>
-      <c r="R25" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>23</v>
-      </c>
-      <c r="S25" s="5">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="T25" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U25" s="5">
-        <v>177.52199999999999</v>
-      </c>
-      <c r="V25" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W25" s="5">
-        <v>184.279</v>
-      </c>
-      <c r="X25" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1594818241</v>
       </c>
@@ -4417,30 +3868,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>24</v>
       </c>
-      <c r="R26" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>24</v>
-      </c>
-      <c r="S26" s="3">
-        <v>171.50800000000001</v>
-      </c>
-      <c r="T26" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U26" s="3">
-        <v>207.52099999999999</v>
-      </c>
-      <c r="V26" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W26" s="3">
-        <v>214.28</v>
-      </c>
-      <c r="X26" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1594818242</v>
       </c>
@@ -4480,30 +3909,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>25</v>
       </c>
-      <c r="R27" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>25</v>
-      </c>
-      <c r="S27" s="5">
-        <v>201.50800000000001</v>
-      </c>
-      <c r="T27" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U27" s="5">
-        <v>237.52099999999999</v>
-      </c>
-      <c r="V27" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W27" s="5">
-        <v>244.28</v>
-      </c>
-      <c r="X27" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1594818243</v>
       </c>
@@ -4543,30 +3950,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>26</v>
       </c>
-      <c r="R28" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>26</v>
-      </c>
-      <c r="S28" s="3">
-        <v>231.50800000000001</v>
-      </c>
-      <c r="T28" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U28" s="3">
-        <v>267.52100000000002</v>
-      </c>
-      <c r="V28" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W28" s="3">
-        <v>274.27999999999997</v>
-      </c>
-      <c r="X28" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1594818244</v>
       </c>
@@ -4606,30 +3991,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>27</v>
       </c>
-      <c r="R29" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>27</v>
-      </c>
-      <c r="S29" s="5">
-        <v>261.50700000000001</v>
-      </c>
-      <c r="T29" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U29" s="5">
-        <v>297.52100000000002</v>
-      </c>
-      <c r="V29" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W29" s="5">
-        <v>304.27999999999997</v>
-      </c>
-      <c r="X29" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1594818245</v>
       </c>
@@ -4669,30 +4032,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>28</v>
       </c>
-      <c r="R30" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>28</v>
-      </c>
-      <c r="S30" s="3">
-        <v>291.50799999999998</v>
-      </c>
-      <c r="T30" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="U30" s="3">
-        <v>327.52199999999999</v>
-      </c>
-      <c r="V30" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="W30" s="3">
-        <v>334.279</v>
-      </c>
-      <c r="X30" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1594818246</v>
       </c>
@@ -4732,30 +4073,8 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>29</v>
       </c>
-      <c r="R31" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>29</v>
-      </c>
-      <c r="S31" s="5">
-        <v>353.46600000000001</v>
-      </c>
-      <c r="T31" s="10">
-        <v>173.46600000000001</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="V31" s="8">
-        <v>180.666</v>
-      </c>
-      <c r="W31" s="5">
-        <v>2.4910000000000001</v>
-      </c>
-      <c r="X31" s="10">
-        <v>182.49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1594818247</v>
       </c>
@@ -4794,28 +4113,6 @@
       <c r="O32">
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>30</v>
-      </c>
-      <c r="R32" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>30</v>
-      </c>
-      <c r="S32" s="3">
-        <v>26.318000000000001</v>
-      </c>
-      <c r="T32" s="9">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="U32" s="3">
-        <v>30.324999999999999</v>
-      </c>
-      <c r="V32" s="7">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="W32" s="3">
-        <v>32.49</v>
-      </c>
-      <c r="X32" s="9">
-        <v>182.49</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -4858,28 +4155,6 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>31</v>
       </c>
-      <c r="R33" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>31</v>
-      </c>
-      <c r="S33" s="5">
-        <v>56.317999999999998</v>
-      </c>
-      <c r="T33" s="10">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="U33" s="5">
-        <v>60.325000000000003</v>
-      </c>
-      <c r="V33" s="8">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="W33" s="5">
-        <v>62.491</v>
-      </c>
-      <c r="X33" s="10">
-        <v>182.49</v>
-      </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4921,28 +4196,6 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>32</v>
       </c>
-      <c r="R34" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>32</v>
-      </c>
-      <c r="S34" s="3">
-        <v>86.317999999999998</v>
-      </c>
-      <c r="T34" s="9">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="U34" s="3">
-        <v>90.325000000000003</v>
-      </c>
-      <c r="V34" s="7">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="W34" s="3">
-        <v>92.49</v>
-      </c>
-      <c r="X34" s="9">
-        <v>182.49</v>
-      </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4984,28 +4237,6 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>33</v>
       </c>
-      <c r="R35" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>33</v>
-      </c>
-      <c r="S35" s="5">
-        <v>116.318</v>
-      </c>
-      <c r="T35" s="10">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="U35" s="5">
-        <v>120.325</v>
-      </c>
-      <c r="V35" s="8">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="W35" s="5">
-        <v>122.49</v>
-      </c>
-      <c r="X35" s="10">
-        <v>182.49</v>
-      </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -5047,28 +4278,6 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>34</v>
       </c>
-      <c r="R36" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>34</v>
-      </c>
-      <c r="S36" s="3">
-        <v>146.31800000000001</v>
-      </c>
-      <c r="T36" s="9">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="U36" s="3">
-        <v>150.32499999999999</v>
-      </c>
-      <c r="V36" s="7">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="W36" s="3">
-        <v>152.49100000000001</v>
-      </c>
-      <c r="X36" s="9">
-        <v>182.49</v>
-      </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -5110,28 +4319,13 @@
         <f>logotest1[[#This Row],[Column1]]-1594818229</f>
         <v>35</v>
       </c>
-      <c r="R37" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>35</v>
-      </c>
-      <c r="S37" s="5">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="T37" s="10">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="U37" s="5">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="V37" s="8">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="W37" s="5">
-        <v>182.49</v>
-      </c>
-      <c r="X37" s="10">
-        <v>182.49</v>
-      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -9206,14 +8400,902 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4A8D0-6D45-45FA-8C4A-EF9D811F31D2}">
-  <dimension ref="A1"/>
+  <dimension ref="E1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>351.79500000000002</v>
+      </c>
+      <c r="G2" s="9">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3">
+        <v>364.96</v>
+      </c>
+      <c r="I2" s="7">
+        <v>180</v>
+      </c>
+      <c r="J2" s="3">
+        <v>479.30500000000001</v>
+      </c>
+      <c r="K2" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>351.80200000000002</v>
+      </c>
+      <c r="G3" s="10">
+        <v>90</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="I3" s="8">
+        <v>180</v>
+      </c>
+      <c r="J3" s="5">
+        <v>119.32</v>
+      </c>
+      <c r="K3" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>351.80599999999998</v>
+      </c>
+      <c r="G4" s="9">
+        <v>90</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>180</v>
+      </c>
+      <c r="J4" s="3">
+        <v>119.325</v>
+      </c>
+      <c r="K4" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>351.81</v>
+      </c>
+      <c r="G5" s="10">
+        <v>90</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="I5" s="8">
+        <v>180</v>
+      </c>
+      <c r="J5" s="5">
+        <v>119.33</v>
+      </c>
+      <c r="K5" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>351.815</v>
+      </c>
+      <c r="G6" s="9">
+        <v>90</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>180</v>
+      </c>
+      <c r="J6" s="3">
+        <v>119.334</v>
+      </c>
+      <c r="K6" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>351.81900000000002</v>
+      </c>
+      <c r="G7" s="10">
+        <v>90</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="I7" s="8">
+        <v>180</v>
+      </c>
+      <c r="J7" s="5">
+        <v>119.33799999999999</v>
+      </c>
+      <c r="K7" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>351.82299999999998</v>
+      </c>
+      <c r="G8" s="9">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3">
+        <v>15.112</v>
+      </c>
+      <c r="I8" s="7">
+        <v>165.11099999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>120.001</v>
+      </c>
+      <c r="K8" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="5">
+        <v>351.827</v>
+      </c>
+      <c r="G9" s="10">
+        <v>90</v>
+      </c>
+      <c r="H9" s="5">
+        <v>33.091000000000001</v>
+      </c>
+      <c r="I9" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J9" s="5">
+        <v>85.664000000000001</v>
+      </c>
+      <c r="K9" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>360</v>
+      </c>
+      <c r="G10" s="9">
+        <v>90</v>
+      </c>
+      <c r="H10" s="3">
+        <v>63.09</v>
+      </c>
+      <c r="I10" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J10" s="3">
+        <v>115.664</v>
+      </c>
+      <c r="K10" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>9</v>
+      </c>
+      <c r="F11" s="5">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10">
+        <v>90</v>
+      </c>
+      <c r="H11" s="5">
+        <v>93.09</v>
+      </c>
+      <c r="I11" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J11" s="5">
+        <v>145.66399999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>60</v>
+      </c>
+      <c r="G12" s="9">
+        <v>90</v>
+      </c>
+      <c r="H12" s="3">
+        <v>123.09</v>
+      </c>
+      <c r="I12" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J12" s="3">
+        <v>175.66399999999999</v>
+      </c>
+      <c r="K12" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>11</v>
+      </c>
+      <c r="F13" s="5">
+        <v>90</v>
+      </c>
+      <c r="G13" s="10">
+        <v>90</v>
+      </c>
+      <c r="H13" s="5">
+        <v>153.09</v>
+      </c>
+      <c r="I13" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J13" s="5">
+        <v>205.66399999999999</v>
+      </c>
+      <c r="K13" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>120.001</v>
+      </c>
+      <c r="G14" s="9">
+        <v>90</v>
+      </c>
+      <c r="H14" s="3">
+        <v>183.09</v>
+      </c>
+      <c r="I14" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J14" s="3">
+        <v>235.66399999999999</v>
+      </c>
+      <c r="K14" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>13</v>
+      </c>
+      <c r="F15" s="5">
+        <v>150</v>
+      </c>
+      <c r="G15" s="10">
+        <v>90</v>
+      </c>
+      <c r="H15" s="5">
+        <v>213.09</v>
+      </c>
+      <c r="I15" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J15" s="5">
+        <v>265.66399999999999</v>
+      </c>
+      <c r="K15" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="3">
+        <v>180</v>
+      </c>
+      <c r="G16" s="9">
+        <v>90</v>
+      </c>
+      <c r="H16" s="3">
+        <v>243.09</v>
+      </c>
+      <c r="I16" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J16" s="3">
+        <v>295.66399999999999</v>
+      </c>
+      <c r="K16" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="5">
+        <v>210</v>
+      </c>
+      <c r="G17" s="10">
+        <v>90</v>
+      </c>
+      <c r="H17" s="5">
+        <v>273.08999999999997</v>
+      </c>
+      <c r="I17" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J17" s="5">
+        <v>325.66399999999999</v>
+      </c>
+      <c r="K17" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <v>240</v>
+      </c>
+      <c r="G18" s="9">
+        <v>90</v>
+      </c>
+      <c r="H18" s="3">
+        <v>303.08999999999997</v>
+      </c>
+      <c r="I18" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J18" s="3">
+        <v>355.66399999999999</v>
+      </c>
+      <c r="K18" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>17</v>
+      </c>
+      <c r="F19" s="5">
+        <v>270.00099999999998</v>
+      </c>
+      <c r="G19" s="10">
+        <v>90</v>
+      </c>
+      <c r="H19" s="5">
+        <v>359.14100000000002</v>
+      </c>
+      <c r="I19" s="8">
+        <v>179.14099999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>25.664000000000001</v>
+      </c>
+      <c r="K19" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>351.50700000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H20" s="3">
+        <v>27.521000000000001</v>
+      </c>
+      <c r="I20" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J20" s="3">
+        <v>34.28</v>
+      </c>
+      <c r="K20" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>19</v>
+      </c>
+      <c r="F21" s="5">
+        <v>21.507999999999999</v>
+      </c>
+      <c r="G21" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H21" s="5">
+        <v>57.521000000000001</v>
+      </c>
+      <c r="I21" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J21" s="5">
+        <v>64.28</v>
+      </c>
+      <c r="K21" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>51.508000000000003</v>
+      </c>
+      <c r="G22" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H22" s="3">
+        <v>87.521000000000001</v>
+      </c>
+      <c r="I22" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>94.28</v>
+      </c>
+      <c r="K22" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>21</v>
+      </c>
+      <c r="F23" s="5">
+        <v>81.507999999999996</v>
+      </c>
+      <c r="G23" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H23" s="5">
+        <v>117.52200000000001</v>
+      </c>
+      <c r="I23" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J23" s="5">
+        <v>124.28</v>
+      </c>
+      <c r="K23" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>22</v>
+      </c>
+      <c r="F24" s="3">
+        <v>111.508</v>
+      </c>
+      <c r="G24" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H24" s="3">
+        <v>147.52199999999999</v>
+      </c>
+      <c r="I24" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J24" s="3">
+        <v>154.28</v>
+      </c>
+      <c r="K24" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>23</v>
+      </c>
+      <c r="F25" s="5">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="G25" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H25" s="5">
+        <v>177.52199999999999</v>
+      </c>
+      <c r="I25" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J25" s="5">
+        <v>184.279</v>
+      </c>
+      <c r="K25" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>24</v>
+      </c>
+      <c r="F26" s="3">
+        <v>171.50800000000001</v>
+      </c>
+      <c r="G26" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H26" s="3">
+        <v>207.52099999999999</v>
+      </c>
+      <c r="I26" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J26" s="3">
+        <v>214.28</v>
+      </c>
+      <c r="K26" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>25</v>
+      </c>
+      <c r="F27" s="5">
+        <v>201.50800000000001</v>
+      </c>
+      <c r="G27" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H27" s="5">
+        <v>237.52099999999999</v>
+      </c>
+      <c r="I27" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J27" s="5">
+        <v>244.28</v>
+      </c>
+      <c r="K27" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>26</v>
+      </c>
+      <c r="F28" s="3">
+        <v>231.50800000000001</v>
+      </c>
+      <c r="G28" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>267.52100000000002</v>
+      </c>
+      <c r="I28" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J28" s="3">
+        <v>274.27999999999997</v>
+      </c>
+      <c r="K28" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>27</v>
+      </c>
+      <c r="F29" s="5">
+        <v>261.50700000000001</v>
+      </c>
+      <c r="G29" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H29" s="5">
+        <v>297.52100000000002</v>
+      </c>
+      <c r="I29" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J29" s="5">
+        <v>304.27999999999997</v>
+      </c>
+      <c r="K29" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>28</v>
+      </c>
+      <c r="F30" s="3">
+        <v>291.50799999999998</v>
+      </c>
+      <c r="G30" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H30" s="3">
+        <v>327.52199999999999</v>
+      </c>
+      <c r="I30" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J30" s="3">
+        <v>334.279</v>
+      </c>
+      <c r="K30" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>29</v>
+      </c>
+      <c r="F31" s="5">
+        <v>353.46600000000001</v>
+      </c>
+      <c r="G31" s="10">
+        <v>173.46600000000001</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="I31" s="8">
+        <v>180.666</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2.4910000000000001</v>
+      </c>
+      <c r="K31" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>30</v>
+      </c>
+      <c r="F32" s="3">
+        <v>26.318000000000001</v>
+      </c>
+      <c r="G32" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>30.324999999999999</v>
+      </c>
+      <c r="I32" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J32" s="3">
+        <v>32.49</v>
+      </c>
+      <c r="K32" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>31</v>
+      </c>
+      <c r="F33" s="5">
+        <v>56.317999999999998</v>
+      </c>
+      <c r="G33" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H33" s="5">
+        <v>60.325000000000003</v>
+      </c>
+      <c r="I33" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>62.491</v>
+      </c>
+      <c r="K33" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>32</v>
+      </c>
+      <c r="F34" s="3">
+        <v>86.317999999999998</v>
+      </c>
+      <c r="G34" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H34" s="3">
+        <v>90.325000000000003</v>
+      </c>
+      <c r="I34" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J34" s="3">
+        <v>92.49</v>
+      </c>
+      <c r="K34" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>33</v>
+      </c>
+      <c r="F35" s="5">
+        <v>116.318</v>
+      </c>
+      <c r="G35" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H35" s="5">
+        <v>120.325</v>
+      </c>
+      <c r="I35" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J35" s="5">
+        <v>122.49</v>
+      </c>
+      <c r="K35" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>34</v>
+      </c>
+      <c r="F36" s="3">
+        <v>146.31800000000001</v>
+      </c>
+      <c r="G36" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H36" s="3">
+        <v>150.32499999999999</v>
+      </c>
+      <c r="I36" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J36" s="3">
+        <v>152.49100000000001</v>
+      </c>
+      <c r="K36" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>35</v>
+      </c>
+      <c r="F37" s="5">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="G37" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H37" s="5">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="I37" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J37" s="5">
+        <v>182.49</v>
+      </c>
+      <c r="K37" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data_Files/data sheet.xlsx
+++ b/Data_Files/data sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\SPRI2020_Roomba\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12EBC6C-794C-43BA-91DF-49B608018FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BFD280-19C5-421A-9B1E-5569658ECD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$C$143</definedName>
@@ -2792,7 +2792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EB3ACF-D963-4A0F-9D01-368FE69B755A}">
   <dimension ref="A1:X143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -8399,908 +8399,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4A8D0-6D45-45FA-8C4A-EF9D811F31D2}">
-  <dimension ref="E1:K37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>351.79500000000002</v>
-      </c>
-      <c r="G2" s="9">
-        <v>90</v>
-      </c>
-      <c r="H2" s="3">
-        <v>364.96</v>
-      </c>
-      <c r="I2" s="7">
-        <v>180</v>
-      </c>
-      <c r="J2" s="3">
-        <v>479.30500000000001</v>
-      </c>
-      <c r="K2" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>351.80200000000002</v>
-      </c>
-      <c r="G3" s="10">
-        <v>90</v>
-      </c>
-      <c r="H3" s="5">
-        <v>4.9740000000000002</v>
-      </c>
-      <c r="I3" s="8">
-        <v>180</v>
-      </c>
-      <c r="J3" s="5">
-        <v>119.32</v>
-      </c>
-      <c r="K3" s="10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>351.80599999999998</v>
-      </c>
-      <c r="G4" s="9">
-        <v>90</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4.9790000000000001</v>
-      </c>
-      <c r="I4" s="7">
-        <v>180</v>
-      </c>
-      <c r="J4" s="3">
-        <v>119.325</v>
-      </c>
-      <c r="K4" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>351.81</v>
-      </c>
-      <c r="G5" s="10">
-        <v>90</v>
-      </c>
-      <c r="H5" s="5">
-        <v>4.9829999999999997</v>
-      </c>
-      <c r="I5" s="8">
-        <v>180</v>
-      </c>
-      <c r="J5" s="5">
-        <v>119.33</v>
-      </c>
-      <c r="K5" s="10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>351.815</v>
-      </c>
-      <c r="G6" s="9">
-        <v>90</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.9870000000000001</v>
-      </c>
-      <c r="I6" s="7">
-        <v>180</v>
-      </c>
-      <c r="J6" s="3">
-        <v>119.334</v>
-      </c>
-      <c r="K6" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>351.81900000000002</v>
-      </c>
-      <c r="G7" s="10">
-        <v>90</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4.9930000000000003</v>
-      </c>
-      <c r="I7" s="8">
-        <v>180</v>
-      </c>
-      <c r="J7" s="5">
-        <v>119.33799999999999</v>
-      </c>
-      <c r="K7" s="10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>6</v>
-      </c>
-      <c r="F8" s="3">
-        <v>351.82299999999998</v>
-      </c>
-      <c r="G8" s="9">
-        <v>90</v>
-      </c>
-      <c r="H8" s="3">
-        <v>15.112</v>
-      </c>
-      <c r="I8" s="7">
-        <v>165.11099999999999</v>
-      </c>
-      <c r="J8" s="3">
-        <v>120.001</v>
-      </c>
-      <c r="K8" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>7</v>
-      </c>
-      <c r="F9" s="5">
-        <v>351.827</v>
-      </c>
-      <c r="G9" s="10">
-        <v>90</v>
-      </c>
-      <c r="H9" s="5">
-        <v>33.091000000000001</v>
-      </c>
-      <c r="I9" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="J9" s="5">
-        <v>85.664000000000001</v>
-      </c>
-      <c r="K9" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>360</v>
-      </c>
-      <c r="G10" s="9">
-        <v>90</v>
-      </c>
-      <c r="H10" s="3">
-        <v>63.09</v>
-      </c>
-      <c r="I10" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="J10" s="3">
-        <v>115.664</v>
-      </c>
-      <c r="K10" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>9</v>
-      </c>
-      <c r="F11" s="5">
-        <v>30</v>
-      </c>
-      <c r="G11" s="10">
-        <v>90</v>
-      </c>
-      <c r="H11" s="5">
-        <v>93.09</v>
-      </c>
-      <c r="I11" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="J11" s="5">
-        <v>145.66399999999999</v>
-      </c>
-      <c r="K11" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>60</v>
-      </c>
-      <c r="G12" s="9">
-        <v>90</v>
-      </c>
-      <c r="H12" s="3">
-        <v>123.09</v>
-      </c>
-      <c r="I12" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="J12" s="3">
-        <v>175.66399999999999</v>
-      </c>
-      <c r="K12" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>11</v>
-      </c>
-      <c r="F13" s="5">
-        <v>90</v>
-      </c>
-      <c r="G13" s="10">
-        <v>90</v>
-      </c>
-      <c r="H13" s="5">
-        <v>153.09</v>
-      </c>
-      <c r="I13" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="J13" s="5">
-        <v>205.66399999999999</v>
-      </c>
-      <c r="K13" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <v>120.001</v>
-      </c>
-      <c r="G14" s="9">
-        <v>90</v>
-      </c>
-      <c r="H14" s="3">
-        <v>183.09</v>
-      </c>
-      <c r="I14" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="J14" s="3">
-        <v>235.66399999999999</v>
-      </c>
-      <c r="K14" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>13</v>
-      </c>
-      <c r="F15" s="5">
-        <v>150</v>
-      </c>
-      <c r="G15" s="10">
-        <v>90</v>
-      </c>
-      <c r="H15" s="5">
-        <v>213.09</v>
-      </c>
-      <c r="I15" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="J15" s="5">
-        <v>265.66399999999999</v>
-      </c>
-      <c r="K15" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>14</v>
-      </c>
-      <c r="F16" s="3">
-        <v>180</v>
-      </c>
-      <c r="G16" s="9">
-        <v>90</v>
-      </c>
-      <c r="H16" s="3">
-        <v>243.09</v>
-      </c>
-      <c r="I16" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="J16" s="3">
-        <v>295.66399999999999</v>
-      </c>
-      <c r="K16" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>15</v>
-      </c>
-      <c r="F17" s="5">
-        <v>210</v>
-      </c>
-      <c r="G17" s="10">
-        <v>90</v>
-      </c>
-      <c r="H17" s="5">
-        <v>273.08999999999997</v>
-      </c>
-      <c r="I17" s="8">
-        <v>153.09</v>
-      </c>
-      <c r="J17" s="5">
-        <v>325.66399999999999</v>
-      </c>
-      <c r="K17" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>16</v>
-      </c>
-      <c r="F18" s="3">
-        <v>240</v>
-      </c>
-      <c r="G18" s="9">
-        <v>90</v>
-      </c>
-      <c r="H18" s="3">
-        <v>303.08999999999997</v>
-      </c>
-      <c r="I18" s="7">
-        <v>153.09</v>
-      </c>
-      <c r="J18" s="3">
-        <v>355.66399999999999</v>
-      </c>
-      <c r="K18" s="9">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>17</v>
-      </c>
-      <c r="F19" s="5">
-        <v>270.00099999999998</v>
-      </c>
-      <c r="G19" s="10">
-        <v>90</v>
-      </c>
-      <c r="H19" s="5">
-        <v>359.14100000000002</v>
-      </c>
-      <c r="I19" s="8">
-        <v>179.14099999999999</v>
-      </c>
-      <c r="J19" s="5">
-        <v>25.664000000000001</v>
-      </c>
-      <c r="K19" s="10">
-        <v>205.66399999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>18</v>
-      </c>
-      <c r="F20" s="3">
-        <v>351.50700000000001</v>
-      </c>
-      <c r="G20" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H20" s="3">
-        <v>27.521000000000001</v>
-      </c>
-      <c r="I20" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J20" s="3">
-        <v>34.28</v>
-      </c>
-      <c r="K20" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>19</v>
-      </c>
-      <c r="F21" s="5">
-        <v>21.507999999999999</v>
-      </c>
-      <c r="G21" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H21" s="5">
-        <v>57.521000000000001</v>
-      </c>
-      <c r="I21" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J21" s="5">
-        <v>64.28</v>
-      </c>
-      <c r="K21" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>20</v>
-      </c>
-      <c r="F22" s="3">
-        <v>51.508000000000003</v>
-      </c>
-      <c r="G22" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H22" s="3">
-        <v>87.521000000000001</v>
-      </c>
-      <c r="I22" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J22" s="3">
-        <v>94.28</v>
-      </c>
-      <c r="K22" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>21</v>
-      </c>
-      <c r="F23" s="5">
-        <v>81.507999999999996</v>
-      </c>
-      <c r="G23" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H23" s="5">
-        <v>117.52200000000001</v>
-      </c>
-      <c r="I23" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J23" s="5">
-        <v>124.28</v>
-      </c>
-      <c r="K23" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>22</v>
-      </c>
-      <c r="F24" s="3">
-        <v>111.508</v>
-      </c>
-      <c r="G24" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H24" s="3">
-        <v>147.52199999999999</v>
-      </c>
-      <c r="I24" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J24" s="3">
-        <v>154.28</v>
-      </c>
-      <c r="K24" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>23</v>
-      </c>
-      <c r="F25" s="5">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="G25" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H25" s="5">
-        <v>177.52199999999999</v>
-      </c>
-      <c r="I25" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J25" s="5">
-        <v>184.279</v>
-      </c>
-      <c r="K25" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>24</v>
-      </c>
-      <c r="F26" s="3">
-        <v>171.50800000000001</v>
-      </c>
-      <c r="G26" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H26" s="3">
-        <v>207.52099999999999</v>
-      </c>
-      <c r="I26" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J26" s="3">
-        <v>214.28</v>
-      </c>
-      <c r="K26" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>25</v>
-      </c>
-      <c r="F27" s="5">
-        <v>201.50800000000001</v>
-      </c>
-      <c r="G27" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H27" s="5">
-        <v>237.52099999999999</v>
-      </c>
-      <c r="I27" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J27" s="5">
-        <v>244.28</v>
-      </c>
-      <c r="K27" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>26</v>
-      </c>
-      <c r="F28" s="3">
-        <v>231.50800000000001</v>
-      </c>
-      <c r="G28" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H28" s="3">
-        <v>267.52100000000002</v>
-      </c>
-      <c r="I28" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J28" s="3">
-        <v>274.27999999999997</v>
-      </c>
-      <c r="K28" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>27</v>
-      </c>
-      <c r="F29" s="5">
-        <v>261.50700000000001</v>
-      </c>
-      <c r="G29" s="10">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H29" s="5">
-        <v>297.52100000000002</v>
-      </c>
-      <c r="I29" s="8">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J29" s="5">
-        <v>304.27999999999997</v>
-      </c>
-      <c r="K29" s="10">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>28</v>
-      </c>
-      <c r="F30" s="3">
-        <v>291.50799999999998</v>
-      </c>
-      <c r="G30" s="9">
-        <v>141.50700000000001</v>
-      </c>
-      <c r="H30" s="3">
-        <v>327.52199999999999</v>
-      </c>
-      <c r="I30" s="7">
-        <v>177.52099999999999</v>
-      </c>
-      <c r="J30" s="3">
-        <v>334.279</v>
-      </c>
-      <c r="K30" s="9">
-        <v>184.279</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>29</v>
-      </c>
-      <c r="F31" s="5">
-        <v>353.46600000000001</v>
-      </c>
-      <c r="G31" s="10">
-        <v>173.46600000000001</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="I31" s="8">
-        <v>180.666</v>
-      </c>
-      <c r="J31" s="5">
-        <v>2.4910000000000001</v>
-      </c>
-      <c r="K31" s="10">
-        <v>182.49</v>
-      </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>30</v>
-      </c>
-      <c r="F32" s="3">
-        <v>26.318000000000001</v>
-      </c>
-      <c r="G32" s="9">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="H32" s="3">
-        <v>30.324999999999999</v>
-      </c>
-      <c r="I32" s="7">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="J32" s="3">
-        <v>32.49</v>
-      </c>
-      <c r="K32" s="9">
-        <v>182.49</v>
-      </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E33" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>31</v>
-      </c>
-      <c r="F33" s="5">
-        <v>56.317999999999998</v>
-      </c>
-      <c r="G33" s="10">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="H33" s="5">
-        <v>60.325000000000003</v>
-      </c>
-      <c r="I33" s="8">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="J33" s="5">
-        <v>62.491</v>
-      </c>
-      <c r="K33" s="10">
-        <v>182.49</v>
-      </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E34" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>32</v>
-      </c>
-      <c r="F34" s="3">
-        <v>86.317999999999998</v>
-      </c>
-      <c r="G34" s="9">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="H34" s="3">
-        <v>90.325000000000003</v>
-      </c>
-      <c r="I34" s="7">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="J34" s="3">
-        <v>92.49</v>
-      </c>
-      <c r="K34" s="9">
-        <v>182.49</v>
-      </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>33</v>
-      </c>
-      <c r="F35" s="5">
-        <v>116.318</v>
-      </c>
-      <c r="G35" s="10">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="H35" s="5">
-        <v>120.325</v>
-      </c>
-      <c r="I35" s="8">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="J35" s="5">
-        <v>122.49</v>
-      </c>
-      <c r="K35" s="10">
-        <v>182.49</v>
-      </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="4">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>34</v>
-      </c>
-      <c r="F36" s="3">
-        <v>146.31800000000001</v>
-      </c>
-      <c r="G36" s="9">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="H36" s="3">
-        <v>150.32499999999999</v>
-      </c>
-      <c r="I36" s="7">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="J36" s="3">
-        <v>152.49100000000001</v>
-      </c>
-      <c r="K36" s="9">
-        <v>182.49</v>
-      </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E37" s="6">
-        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
-        <v>35</v>
-      </c>
-      <c r="F37" s="5">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="G37" s="10">
-        <v>176.31800000000001</v>
-      </c>
-      <c r="H37" s="5">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="I37" s="8">
-        <v>180.32499999999999</v>
-      </c>
-      <c r="J37" s="5">
-        <v>182.49</v>
-      </c>
-      <c r="K37" s="10">
-        <v>182.49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4630B910-EA24-4399-AB8A-A0F56D1C986D}">
   <dimension ref="A1:D116"/>
   <sheetViews>
@@ -11053,6 +10151,908 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4A8D0-6D45-45FA-8C4A-EF9D811F31D2}">
+  <dimension ref="E1:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>351.79500000000002</v>
+      </c>
+      <c r="G2" s="9">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3">
+        <v>364.96</v>
+      </c>
+      <c r="I2" s="7">
+        <v>180</v>
+      </c>
+      <c r="J2" s="3">
+        <v>479.30500000000001</v>
+      </c>
+      <c r="K2" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>351.80200000000002</v>
+      </c>
+      <c r="G3" s="10">
+        <v>90</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="I3" s="8">
+        <v>180</v>
+      </c>
+      <c r="J3" s="5">
+        <v>119.32</v>
+      </c>
+      <c r="K3" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>351.80599999999998</v>
+      </c>
+      <c r="G4" s="9">
+        <v>90</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>180</v>
+      </c>
+      <c r="J4" s="3">
+        <v>119.325</v>
+      </c>
+      <c r="K4" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>351.81</v>
+      </c>
+      <c r="G5" s="10">
+        <v>90</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="I5" s="8">
+        <v>180</v>
+      </c>
+      <c r="J5" s="5">
+        <v>119.33</v>
+      </c>
+      <c r="K5" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>351.815</v>
+      </c>
+      <c r="G6" s="9">
+        <v>90</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>180</v>
+      </c>
+      <c r="J6" s="3">
+        <v>119.334</v>
+      </c>
+      <c r="K6" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>351.81900000000002</v>
+      </c>
+      <c r="G7" s="10">
+        <v>90</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="I7" s="8">
+        <v>180</v>
+      </c>
+      <c r="J7" s="5">
+        <v>119.33799999999999</v>
+      </c>
+      <c r="K7" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>351.82299999999998</v>
+      </c>
+      <c r="G8" s="9">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3">
+        <v>15.112</v>
+      </c>
+      <c r="I8" s="7">
+        <v>165.11099999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>120.001</v>
+      </c>
+      <c r="K8" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="5">
+        <v>351.827</v>
+      </c>
+      <c r="G9" s="10">
+        <v>90</v>
+      </c>
+      <c r="H9" s="5">
+        <v>33.091000000000001</v>
+      </c>
+      <c r="I9" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J9" s="5">
+        <v>85.664000000000001</v>
+      </c>
+      <c r="K9" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>360</v>
+      </c>
+      <c r="G10" s="9">
+        <v>90</v>
+      </c>
+      <c r="H10" s="3">
+        <v>63.09</v>
+      </c>
+      <c r="I10" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J10" s="3">
+        <v>115.664</v>
+      </c>
+      <c r="K10" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>9</v>
+      </c>
+      <c r="F11" s="5">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10">
+        <v>90</v>
+      </c>
+      <c r="H11" s="5">
+        <v>93.09</v>
+      </c>
+      <c r="I11" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J11" s="5">
+        <v>145.66399999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>60</v>
+      </c>
+      <c r="G12" s="9">
+        <v>90</v>
+      </c>
+      <c r="H12" s="3">
+        <v>123.09</v>
+      </c>
+      <c r="I12" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J12" s="3">
+        <v>175.66399999999999</v>
+      </c>
+      <c r="K12" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>11</v>
+      </c>
+      <c r="F13" s="5">
+        <v>90</v>
+      </c>
+      <c r="G13" s="10">
+        <v>90</v>
+      </c>
+      <c r="H13" s="5">
+        <v>153.09</v>
+      </c>
+      <c r="I13" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J13" s="5">
+        <v>205.66399999999999</v>
+      </c>
+      <c r="K13" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>120.001</v>
+      </c>
+      <c r="G14" s="9">
+        <v>90</v>
+      </c>
+      <c r="H14" s="3">
+        <v>183.09</v>
+      </c>
+      <c r="I14" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J14" s="3">
+        <v>235.66399999999999</v>
+      </c>
+      <c r="K14" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>13</v>
+      </c>
+      <c r="F15" s="5">
+        <v>150</v>
+      </c>
+      <c r="G15" s="10">
+        <v>90</v>
+      </c>
+      <c r="H15" s="5">
+        <v>213.09</v>
+      </c>
+      <c r="I15" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J15" s="5">
+        <v>265.66399999999999</v>
+      </c>
+      <c r="K15" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="3">
+        <v>180</v>
+      </c>
+      <c r="G16" s="9">
+        <v>90</v>
+      </c>
+      <c r="H16" s="3">
+        <v>243.09</v>
+      </c>
+      <c r="I16" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J16" s="3">
+        <v>295.66399999999999</v>
+      </c>
+      <c r="K16" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="5">
+        <v>210</v>
+      </c>
+      <c r="G17" s="10">
+        <v>90</v>
+      </c>
+      <c r="H17" s="5">
+        <v>273.08999999999997</v>
+      </c>
+      <c r="I17" s="8">
+        <v>153.09</v>
+      </c>
+      <c r="J17" s="5">
+        <v>325.66399999999999</v>
+      </c>
+      <c r="K17" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <v>240</v>
+      </c>
+      <c r="G18" s="9">
+        <v>90</v>
+      </c>
+      <c r="H18" s="3">
+        <v>303.08999999999997</v>
+      </c>
+      <c r="I18" s="7">
+        <v>153.09</v>
+      </c>
+      <c r="J18" s="3">
+        <v>355.66399999999999</v>
+      </c>
+      <c r="K18" s="9">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>17</v>
+      </c>
+      <c r="F19" s="5">
+        <v>270.00099999999998</v>
+      </c>
+      <c r="G19" s="10">
+        <v>90</v>
+      </c>
+      <c r="H19" s="5">
+        <v>359.14100000000002</v>
+      </c>
+      <c r="I19" s="8">
+        <v>179.14099999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>25.664000000000001</v>
+      </c>
+      <c r="K19" s="10">
+        <v>205.66399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>351.50700000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H20" s="3">
+        <v>27.521000000000001</v>
+      </c>
+      <c r="I20" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J20" s="3">
+        <v>34.28</v>
+      </c>
+      <c r="K20" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>19</v>
+      </c>
+      <c r="F21" s="5">
+        <v>21.507999999999999</v>
+      </c>
+      <c r="G21" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H21" s="5">
+        <v>57.521000000000001</v>
+      </c>
+      <c r="I21" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J21" s="5">
+        <v>64.28</v>
+      </c>
+      <c r="K21" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>51.508000000000003</v>
+      </c>
+      <c r="G22" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H22" s="3">
+        <v>87.521000000000001</v>
+      </c>
+      <c r="I22" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>94.28</v>
+      </c>
+      <c r="K22" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>21</v>
+      </c>
+      <c r="F23" s="5">
+        <v>81.507999999999996</v>
+      </c>
+      <c r="G23" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H23" s="5">
+        <v>117.52200000000001</v>
+      </c>
+      <c r="I23" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J23" s="5">
+        <v>124.28</v>
+      </c>
+      <c r="K23" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>22</v>
+      </c>
+      <c r="F24" s="3">
+        <v>111.508</v>
+      </c>
+      <c r="G24" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H24" s="3">
+        <v>147.52199999999999</v>
+      </c>
+      <c r="I24" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J24" s="3">
+        <v>154.28</v>
+      </c>
+      <c r="K24" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>23</v>
+      </c>
+      <c r="F25" s="5">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="G25" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H25" s="5">
+        <v>177.52199999999999</v>
+      </c>
+      <c r="I25" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J25" s="5">
+        <v>184.279</v>
+      </c>
+      <c r="K25" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>24</v>
+      </c>
+      <c r="F26" s="3">
+        <v>171.50800000000001</v>
+      </c>
+      <c r="G26" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H26" s="3">
+        <v>207.52099999999999</v>
+      </c>
+      <c r="I26" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J26" s="3">
+        <v>214.28</v>
+      </c>
+      <c r="K26" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>25</v>
+      </c>
+      <c r="F27" s="5">
+        <v>201.50800000000001</v>
+      </c>
+      <c r="G27" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H27" s="5">
+        <v>237.52099999999999</v>
+      </c>
+      <c r="I27" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J27" s="5">
+        <v>244.28</v>
+      </c>
+      <c r="K27" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>26</v>
+      </c>
+      <c r="F28" s="3">
+        <v>231.50800000000001</v>
+      </c>
+      <c r="G28" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>267.52100000000002</v>
+      </c>
+      <c r="I28" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J28" s="3">
+        <v>274.27999999999997</v>
+      </c>
+      <c r="K28" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>27</v>
+      </c>
+      <c r="F29" s="5">
+        <v>261.50700000000001</v>
+      </c>
+      <c r="G29" s="10">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H29" s="5">
+        <v>297.52100000000002</v>
+      </c>
+      <c r="I29" s="8">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J29" s="5">
+        <v>304.27999999999997</v>
+      </c>
+      <c r="K29" s="10">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>28</v>
+      </c>
+      <c r="F30" s="3">
+        <v>291.50799999999998</v>
+      </c>
+      <c r="G30" s="9">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="H30" s="3">
+        <v>327.52199999999999</v>
+      </c>
+      <c r="I30" s="7">
+        <v>177.52099999999999</v>
+      </c>
+      <c r="J30" s="3">
+        <v>334.279</v>
+      </c>
+      <c r="K30" s="9">
+        <v>184.279</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>29</v>
+      </c>
+      <c r="F31" s="5">
+        <v>353.46600000000001</v>
+      </c>
+      <c r="G31" s="10">
+        <v>173.46600000000001</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="I31" s="8">
+        <v>180.666</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2.4910000000000001</v>
+      </c>
+      <c r="K31" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>30</v>
+      </c>
+      <c r="F32" s="3">
+        <v>26.318000000000001</v>
+      </c>
+      <c r="G32" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>30.324999999999999</v>
+      </c>
+      <c r="I32" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J32" s="3">
+        <v>32.49</v>
+      </c>
+      <c r="K32" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>31</v>
+      </c>
+      <c r="F33" s="5">
+        <v>56.317999999999998</v>
+      </c>
+      <c r="G33" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H33" s="5">
+        <v>60.325000000000003</v>
+      </c>
+      <c r="I33" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>62.491</v>
+      </c>
+      <c r="K33" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>32</v>
+      </c>
+      <c r="F34" s="3">
+        <v>86.317999999999998</v>
+      </c>
+      <c r="G34" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H34" s="3">
+        <v>90.325000000000003</v>
+      </c>
+      <c r="I34" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J34" s="3">
+        <v>92.49</v>
+      </c>
+      <c r="K34" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>33</v>
+      </c>
+      <c r="F35" s="5">
+        <v>116.318</v>
+      </c>
+      <c r="G35" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H35" s="5">
+        <v>120.325</v>
+      </c>
+      <c r="I35" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J35" s="5">
+        <v>122.49</v>
+      </c>
+      <c r="K35" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>34</v>
+      </c>
+      <c r="F36" s="3">
+        <v>146.31800000000001</v>
+      </c>
+      <c r="G36" s="9">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H36" s="3">
+        <v>150.32499999999999</v>
+      </c>
+      <c r="I36" s="7">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J36" s="3">
+        <v>152.49100000000001</v>
+      </c>
+      <c r="K36" s="9">
+        <v>182.49</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <f>logotest1[[#This Row],[Column1]]-1594818229</f>
+        <v>35</v>
+      </c>
+      <c r="F37" s="5">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="G37" s="10">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="H37" s="5">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="I37" s="8">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="J37" s="5">
+        <v>182.49</v>
+      </c>
+      <c r="K37" s="10">
+        <v>182.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Data_Files/data sheet.xlsx
+++ b/Data_Files/data sheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\SPRI2020_Roomba\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BFD280-19C5-421A-9B1E-5569658ECD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7046997B-1F4D-4C8F-9AC5-3CB7E1984FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$C$143</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Column1</t>
   </si>
@@ -96,6 +97,15 @@
   </si>
   <si>
     <t>heading angle</t>
+  </si>
+  <si>
+    <t>phase-1</t>
+  </si>
+  <si>
+    <t>phase-2</t>
+  </si>
+  <si>
+    <t>phase-3</t>
   </si>
 </sst>
 </file>
@@ -1812,6 +1822,1706 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Phase</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Value vs Time (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>phase-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>351.79500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>351.80200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>351.80599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>351.815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351.81900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351.82299999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351.827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270.00099999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>351.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.508000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.507999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111.508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>171.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>231.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>261.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>291.50799999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>353.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>86.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>116.318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>146.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>206.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>236.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>266.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>296.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>326.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90.424000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>120.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>210.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>240.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>270.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>330.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.242</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31.241</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.241999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>91.242000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>121.241</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>151.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>181.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>211.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>241.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>271.24200000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>301.24200000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>331.24099999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>120.66500000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>150.66499999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>210.66499999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>240.66499999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>270.66500000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>300.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>330.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.050999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>91.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>121.051</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>151.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>211.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>241.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>271.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>301.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>331.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>60.976999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>120.977</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>150.976</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>210.976</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>240.976</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>270.976</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>300.97699999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>330.97699999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>30.925999999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>60.926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>90.926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>120.926</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>150.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>210.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>240.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>270.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>300.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>330.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>30.135999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>60.134999999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>90.135999999999996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>120.136</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>150.136</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>180.136</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>210.136</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>240.136</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>270.13600000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>300.13600000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>330.13600000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>30.405000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>60.404000000000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>90.403999999999996</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>120.405</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>150.404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5764-42B9-869C-A015A4C4CBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>phase-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>364.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>183.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>243.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>303.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>359.14100000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>117.52200000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147.52199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>177.52199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>207.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>237.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>267.52100000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>297.52100000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>327.52199999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.324999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120.325</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>210.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>240.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>270.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>300.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>330.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.004000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.003999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.004000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>121.004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>151.00399999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>211.00399999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>241.00399999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>271.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>301.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>331.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.085</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>91.084999999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>121.08499999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>151.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>211.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>241.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>271.08499999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>301.08499999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>331.08499999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>120.848</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>150.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>210.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>240.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>270.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>300.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>330.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>60.728000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90.727999999999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>120.72799999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>150.72900000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>180.72900000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>210.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>240.72900000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>270.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>300.72899999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>330.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>60.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.581999999999994</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>120.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>150.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>210.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>240.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>270.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>300.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>330.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>30.448</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>60.448</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>90.447999999999993</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>120.44799999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>150.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>210.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>240.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>270.44799999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>300.44799999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>330.44799999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>30.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>60.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>90.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>120.167</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>150.166</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>180.167</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>210.167</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>240.166</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>270.16699999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>300.16699999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>330.16699999999997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>30.064</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>60.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>90.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>120.063</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>150.06299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5764-42B9-869C-A015A4C4CBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>phase-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>479.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.33799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115.664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>235.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>265.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>295.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>325.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>355.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64.28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>124.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>154.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>214.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>244.28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>274.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>304.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>334.279</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.491</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>122.49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>152.49100000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>212.49100000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>242.49100000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>272.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>302.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>332.49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>121.84099999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>151.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>211.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>241.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>271.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>301.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>331.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>91.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>121.536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>151.536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>181.536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>211.536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>241.535</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>271.536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>301.53500000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>331.536</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>61.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91.326999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>121.328</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>151.328</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>181.328</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>211.328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>241.328</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>271.327</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>301.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>331.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.111999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>91.111999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>121.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>151.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>211.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>241.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>271.11200000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>301.11200000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>331.11200000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>60.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.947999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>120.94799999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>150.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>180.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>210.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>240.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>270.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>300.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>330.94799999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>30.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>60.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>90.793000000000006</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>120.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>150.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>210.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>240.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>270.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>300.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>330.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>30.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>60.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>90.641000000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>120.64100000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>150.64099999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>180.64099999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>210.64099999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>240.642</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>270.642</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>300.64100000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>330.64100000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>30.434999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>60.435000000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>90.435000000000002</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>120.435</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>150.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5764-42B9-869C-A015A4C4CBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1997563055"/>
+        <c:axId val="1360531503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1997563055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360531503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1360531503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Phase</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997563055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1852,7 +3562,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2409,6 +4675,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF759CF1-E6CB-4A99-A2DD-CFB22D1B3AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{E1BB0469-1731-42E5-BCFF-EBD46370F2E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5" unboundColumnsRight="1">
@@ -2793,7 +5100,7 @@
   <dimension ref="A1:X143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8403,7 +10710,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10158,11 +12465,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4A8D0-6D45-45FA-8C4A-EF9D811F31D2}">
   <dimension ref="E1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
@@ -11053,6 +13365,2100 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2AE434-B430-41FD-9CB4-6AB42C2DABF6}">
+  <dimension ref="A1:D143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="V112" sqref="V112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>351.79500000000002</v>
+      </c>
+      <c r="B2">
+        <v>364.96</v>
+      </c>
+      <c r="C2">
+        <v>479.30500000000001</v>
+      </c>
+      <c r="D2">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>351.80200000000002</v>
+      </c>
+      <c r="B3">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="C3">
+        <v>119.32</v>
+      </c>
+      <c r="D3">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>351.80599999999998</v>
+      </c>
+      <c r="B4">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="C4">
+        <v>119.325</v>
+      </c>
+      <c r="D4">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>351.81</v>
+      </c>
+      <c r="B5">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="C5">
+        <v>119.33</v>
+      </c>
+      <c r="D5">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>351.815</v>
+      </c>
+      <c r="B6">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="C6">
+        <v>119.334</v>
+      </c>
+      <c r="D6">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>351.81900000000002</v>
+      </c>
+      <c r="B7">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="C7">
+        <v>119.33799999999999</v>
+      </c>
+      <c r="D7">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>351.82299999999998</v>
+      </c>
+      <c r="B8">
+        <v>15.112</v>
+      </c>
+      <c r="C8">
+        <v>120.001</v>
+      </c>
+      <c r="D8">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>351.827</v>
+      </c>
+      <c r="B9">
+        <v>33.091000000000001</v>
+      </c>
+      <c r="C9">
+        <v>85.664000000000001</v>
+      </c>
+      <c r="D9">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>360</v>
+      </c>
+      <c r="B10">
+        <v>63.09</v>
+      </c>
+      <c r="C10">
+        <v>115.664</v>
+      </c>
+      <c r="D10">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>93.09</v>
+      </c>
+      <c r="C11">
+        <v>145.66399999999999</v>
+      </c>
+      <c r="D11">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>123.09</v>
+      </c>
+      <c r="C12">
+        <v>175.66399999999999</v>
+      </c>
+      <c r="D12">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>153.09</v>
+      </c>
+      <c r="C13">
+        <v>205.66399999999999</v>
+      </c>
+      <c r="D13">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>120.001</v>
+      </c>
+      <c r="B14">
+        <v>183.09</v>
+      </c>
+      <c r="C14">
+        <v>235.66399999999999</v>
+      </c>
+      <c r="D14">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>213.09</v>
+      </c>
+      <c r="C15">
+        <v>265.66399999999999</v>
+      </c>
+      <c r="D15">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>180</v>
+      </c>
+      <c r="B16">
+        <v>243.09</v>
+      </c>
+      <c r="C16">
+        <v>295.66399999999999</v>
+      </c>
+      <c r="D16">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>210</v>
+      </c>
+      <c r="B17">
+        <v>273.08999999999997</v>
+      </c>
+      <c r="C17">
+        <v>325.66399999999999</v>
+      </c>
+      <c r="D17">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>240</v>
+      </c>
+      <c r="B18">
+        <v>303.08999999999997</v>
+      </c>
+      <c r="C18">
+        <v>355.66399999999999</v>
+      </c>
+      <c r="D18">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>270.00099999999998</v>
+      </c>
+      <c r="B19">
+        <v>359.14100000000002</v>
+      </c>
+      <c r="C19">
+        <v>25.664000000000001</v>
+      </c>
+      <c r="D19">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>351.50700000000001</v>
+      </c>
+      <c r="B20">
+        <v>27.521000000000001</v>
+      </c>
+      <c r="C20">
+        <v>34.28</v>
+      </c>
+      <c r="D20">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21.507999999999999</v>
+      </c>
+      <c r="B21">
+        <v>57.521000000000001</v>
+      </c>
+      <c r="C21">
+        <v>64.28</v>
+      </c>
+      <c r="D21">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>51.508000000000003</v>
+      </c>
+      <c r="B22">
+        <v>87.521000000000001</v>
+      </c>
+      <c r="C22">
+        <v>94.28</v>
+      </c>
+      <c r="D22">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>81.507999999999996</v>
+      </c>
+      <c r="B23">
+        <v>117.52200000000001</v>
+      </c>
+      <c r="C23">
+        <v>124.28</v>
+      </c>
+      <c r="D23">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>111.508</v>
+      </c>
+      <c r="B24">
+        <v>147.52199999999999</v>
+      </c>
+      <c r="C24">
+        <v>154.28</v>
+      </c>
+      <c r="D24">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>141.50700000000001</v>
+      </c>
+      <c r="B25">
+        <v>177.52199999999999</v>
+      </c>
+      <c r="C25">
+        <v>184.279</v>
+      </c>
+      <c r="D25">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>171.50800000000001</v>
+      </c>
+      <c r="B26">
+        <v>207.52099999999999</v>
+      </c>
+      <c r="C26">
+        <v>214.28</v>
+      </c>
+      <c r="D26">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>201.50800000000001</v>
+      </c>
+      <c r="B27">
+        <v>237.52099999999999</v>
+      </c>
+      <c r="C27">
+        <v>244.28</v>
+      </c>
+      <c r="D27">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>231.50800000000001</v>
+      </c>
+      <c r="B28">
+        <v>267.52100000000002</v>
+      </c>
+      <c r="C28">
+        <v>274.27999999999997</v>
+      </c>
+      <c r="D28">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>261.50700000000001</v>
+      </c>
+      <c r="B29">
+        <v>297.52100000000002</v>
+      </c>
+      <c r="C29">
+        <v>304.27999999999997</v>
+      </c>
+      <c r="D29">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>291.50799999999998</v>
+      </c>
+      <c r="B30">
+        <v>327.52199999999999</v>
+      </c>
+      <c r="C30">
+        <v>334.279</v>
+      </c>
+      <c r="D30">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>353.46600000000001</v>
+      </c>
+      <c r="B31">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="C31">
+        <v>2.4910000000000001</v>
+      </c>
+      <c r="D31">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26.318000000000001</v>
+      </c>
+      <c r="B32">
+        <v>30.324999999999999</v>
+      </c>
+      <c r="C32">
+        <v>32.49</v>
+      </c>
+      <c r="D32">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>56.317999999999998</v>
+      </c>
+      <c r="B33">
+        <v>60.325000000000003</v>
+      </c>
+      <c r="C33">
+        <v>62.491</v>
+      </c>
+      <c r="D33">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>86.317999999999998</v>
+      </c>
+      <c r="B34">
+        <v>90.325000000000003</v>
+      </c>
+      <c r="C34">
+        <v>92.49</v>
+      </c>
+      <c r="D34">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>116.318</v>
+      </c>
+      <c r="B35">
+        <v>120.325</v>
+      </c>
+      <c r="C35">
+        <v>122.49</v>
+      </c>
+      <c r="D35">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>146.31800000000001</v>
+      </c>
+      <c r="B36">
+        <v>150.32499999999999</v>
+      </c>
+      <c r="C36">
+        <v>152.49100000000001</v>
+      </c>
+      <c r="D36">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>176.31800000000001</v>
+      </c>
+      <c r="B37">
+        <v>180.32499999999999</v>
+      </c>
+      <c r="C37">
+        <v>182.49</v>
+      </c>
+      <c r="D37">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>206.31800000000001</v>
+      </c>
+      <c r="B38">
+        <v>210.32499999999999</v>
+      </c>
+      <c r="C38">
+        <v>212.49100000000001</v>
+      </c>
+      <c r="D38">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>236.31800000000001</v>
+      </c>
+      <c r="B39">
+        <v>240.32499999999999</v>
+      </c>
+      <c r="C39">
+        <v>242.49100000000001</v>
+      </c>
+      <c r="D39">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>266.31799999999998</v>
+      </c>
+      <c r="B40">
+        <v>270.32499999999999</v>
+      </c>
+      <c r="C40">
+        <v>272.49099999999999</v>
+      </c>
+      <c r="D40">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>296.31799999999998</v>
+      </c>
+      <c r="B41">
+        <v>300.32499999999999</v>
+      </c>
+      <c r="C41">
+        <v>302.49099999999999</v>
+      </c>
+      <c r="D41">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>326.31799999999998</v>
+      </c>
+      <c r="B42">
+        <v>330.32499999999999</v>
+      </c>
+      <c r="C42">
+        <v>332.49</v>
+      </c>
+      <c r="D42">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="B43">
+        <v>1.004</v>
+      </c>
+      <c r="C43">
+        <v>1.841</v>
+      </c>
+      <c r="D43">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30.423999999999999</v>
+      </c>
+      <c r="B44">
+        <v>31.004000000000001</v>
+      </c>
+      <c r="C44">
+        <v>31.841000000000001</v>
+      </c>
+      <c r="D44">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>60.423999999999999</v>
+      </c>
+      <c r="B45">
+        <v>61.003999999999998</v>
+      </c>
+      <c r="C45">
+        <v>61.841000000000001</v>
+      </c>
+      <c r="D45">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>90.424000000000007</v>
+      </c>
+      <c r="B46">
+        <v>91.004000000000005</v>
+      </c>
+      <c r="C46">
+        <v>91.840999999999994</v>
+      </c>
+      <c r="D46">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>120.42400000000001</v>
+      </c>
+      <c r="B47">
+        <v>121.004</v>
+      </c>
+      <c r="C47">
+        <v>121.84099999999999</v>
+      </c>
+      <c r="D47">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>150.42400000000001</v>
+      </c>
+      <c r="B48">
+        <v>151.00399999999999</v>
+      </c>
+      <c r="C48">
+        <v>151.84100000000001</v>
+      </c>
+      <c r="D48">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>180.42400000000001</v>
+      </c>
+      <c r="B49">
+        <v>181.00299999999999</v>
+      </c>
+      <c r="C49">
+        <v>181.84100000000001</v>
+      </c>
+      <c r="D49">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>210.42400000000001</v>
+      </c>
+      <c r="B50">
+        <v>211.00399999999999</v>
+      </c>
+      <c r="C50">
+        <v>211.84100000000001</v>
+      </c>
+      <c r="D50">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>240.42400000000001</v>
+      </c>
+      <c r="B51">
+        <v>241.00399999999999</v>
+      </c>
+      <c r="C51">
+        <v>241.84100000000001</v>
+      </c>
+      <c r="D51">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>270.42399999999998</v>
+      </c>
+      <c r="B52">
+        <v>271.00400000000002</v>
+      </c>
+      <c r="C52">
+        <v>271.84100000000001</v>
+      </c>
+      <c r="D52">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>300.42399999999998</v>
+      </c>
+      <c r="B53">
+        <v>301.00400000000002</v>
+      </c>
+      <c r="C53">
+        <v>301.84100000000001</v>
+      </c>
+      <c r="D53">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>330.42399999999998</v>
+      </c>
+      <c r="B54">
+        <v>331.00400000000002</v>
+      </c>
+      <c r="C54">
+        <v>331.84100000000001</v>
+      </c>
+      <c r="D54">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.242</v>
+      </c>
+      <c r="B55">
+        <v>1.085</v>
+      </c>
+      <c r="C55">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="D55">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>31.241</v>
+      </c>
+      <c r="B56">
+        <v>31.085000000000001</v>
+      </c>
+      <c r="C56">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="D56">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>61.241999999999997</v>
+      </c>
+      <c r="B57">
+        <v>61.085000000000001</v>
+      </c>
+      <c r="C57">
+        <v>61.536000000000001</v>
+      </c>
+      <c r="D57">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>91.242000000000004</v>
+      </c>
+      <c r="B58">
+        <v>91.084999999999994</v>
+      </c>
+      <c r="C58">
+        <v>91.536000000000001</v>
+      </c>
+      <c r="D58">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>121.241</v>
+      </c>
+      <c r="B59">
+        <v>121.08499999999999</v>
+      </c>
+      <c r="C59">
+        <v>121.536</v>
+      </c>
+      <c r="D59">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>151.24100000000001</v>
+      </c>
+      <c r="B60">
+        <v>151.08500000000001</v>
+      </c>
+      <c r="C60">
+        <v>151.536</v>
+      </c>
+      <c r="D60">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>181.24199999999999</v>
+      </c>
+      <c r="B61">
+        <v>181.08500000000001</v>
+      </c>
+      <c r="C61">
+        <v>181.536</v>
+      </c>
+      <c r="D61">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>211.24199999999999</v>
+      </c>
+      <c r="B62">
+        <v>211.08500000000001</v>
+      </c>
+      <c r="C62">
+        <v>211.536</v>
+      </c>
+      <c r="D62">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>241.24100000000001</v>
+      </c>
+      <c r="B63">
+        <v>241.08500000000001</v>
+      </c>
+      <c r="C63">
+        <v>241.535</v>
+      </c>
+      <c r="D63">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>271.24200000000002</v>
+      </c>
+      <c r="B64">
+        <v>271.08499999999998</v>
+      </c>
+      <c r="C64">
+        <v>271.536</v>
+      </c>
+      <c r="D64">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>301.24200000000002</v>
+      </c>
+      <c r="B65">
+        <v>301.08499999999998</v>
+      </c>
+      <c r="C65">
+        <v>301.53500000000003</v>
+      </c>
+      <c r="D65">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>331.24099999999999</v>
+      </c>
+      <c r="B66">
+        <v>331.08499999999998</v>
+      </c>
+      <c r="C66">
+        <v>331.536</v>
+      </c>
+      <c r="D66">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.42</v>
+      </c>
+      <c r="B67">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="C67">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="D67">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30.664999999999999</v>
+      </c>
+      <c r="B68">
+        <v>30.847999999999999</v>
+      </c>
+      <c r="C68">
+        <v>31.327999999999999</v>
+      </c>
+      <c r="D68">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>60.664999999999999</v>
+      </c>
+      <c r="B69">
+        <v>60.847999999999999</v>
+      </c>
+      <c r="C69">
+        <v>61.328000000000003</v>
+      </c>
+      <c r="D69">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>90.664000000000001</v>
+      </c>
+      <c r="B70">
+        <v>90.847999999999999</v>
+      </c>
+      <c r="C70">
+        <v>91.326999999999998</v>
+      </c>
+      <c r="D70">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>120.66500000000001</v>
+      </c>
+      <c r="B71">
+        <v>120.848</v>
+      </c>
+      <c r="C71">
+        <v>121.328</v>
+      </c>
+      <c r="D71">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>150.66499999999999</v>
+      </c>
+      <c r="B72">
+        <v>150.84800000000001</v>
+      </c>
+      <c r="C72">
+        <v>151.328</v>
+      </c>
+      <c r="D72">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>180.66399999999999</v>
+      </c>
+      <c r="B73">
+        <v>180.84800000000001</v>
+      </c>
+      <c r="C73">
+        <v>181.328</v>
+      </c>
+      <c r="D73">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>210.66499999999999</v>
+      </c>
+      <c r="B74">
+        <v>210.84800000000001</v>
+      </c>
+      <c r="C74">
+        <v>211.328</v>
+      </c>
+      <c r="D74">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>240.66499999999999</v>
+      </c>
+      <c r="B75">
+        <v>240.84800000000001</v>
+      </c>
+      <c r="C75">
+        <v>241.328</v>
+      </c>
+      <c r="D75">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>270.66500000000002</v>
+      </c>
+      <c r="B76">
+        <v>270.84800000000001</v>
+      </c>
+      <c r="C76">
+        <v>271.327</v>
+      </c>
+      <c r="D76">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>300.66399999999999</v>
+      </c>
+      <c r="B77">
+        <v>300.84800000000001</v>
+      </c>
+      <c r="C77">
+        <v>301.32799999999997</v>
+      </c>
+      <c r="D77">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>330.66399999999999</v>
+      </c>
+      <c r="B78">
+        <v>330.84800000000001</v>
+      </c>
+      <c r="C78">
+        <v>331.32799999999997</v>
+      </c>
+      <c r="D78">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="B79">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="C79">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="D79">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>31.050999999999998</v>
+      </c>
+      <c r="B80">
+        <v>30.728999999999999</v>
+      </c>
+      <c r="C80">
+        <v>31.111999999999998</v>
+      </c>
+      <c r="D80">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>61.051000000000002</v>
+      </c>
+      <c r="B81">
+        <v>60.728000000000002</v>
+      </c>
+      <c r="C81">
+        <v>61.112000000000002</v>
+      </c>
+      <c r="D81">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>91.051000000000002</v>
+      </c>
+      <c r="B82">
+        <v>90.727999999999994</v>
+      </c>
+      <c r="C82">
+        <v>91.111999999999995</v>
+      </c>
+      <c r="D82">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>121.051</v>
+      </c>
+      <c r="B83">
+        <v>120.72799999999999</v>
+      </c>
+      <c r="C83">
+        <v>121.11199999999999</v>
+      </c>
+      <c r="D83">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>151.05099999999999</v>
+      </c>
+      <c r="B84">
+        <v>150.72900000000001</v>
+      </c>
+      <c r="C84">
+        <v>151.11199999999999</v>
+      </c>
+      <c r="D84">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>181.05099999999999</v>
+      </c>
+      <c r="B85">
+        <v>180.72900000000001</v>
+      </c>
+      <c r="C85">
+        <v>181.11199999999999</v>
+      </c>
+      <c r="D85">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>211.05099999999999</v>
+      </c>
+      <c r="B86">
+        <v>210.72800000000001</v>
+      </c>
+      <c r="C86">
+        <v>211.11199999999999</v>
+      </c>
+      <c r="D86">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>241.05099999999999</v>
+      </c>
+      <c r="B87">
+        <v>240.72900000000001</v>
+      </c>
+      <c r="C87">
+        <v>241.11199999999999</v>
+      </c>
+      <c r="D87">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>271.05099999999999</v>
+      </c>
+      <c r="B88">
+        <v>270.72800000000001</v>
+      </c>
+      <c r="C88">
+        <v>271.11200000000002</v>
+      </c>
+      <c r="D88">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>301.05099999999999</v>
+      </c>
+      <c r="B89">
+        <v>300.72899999999998</v>
+      </c>
+      <c r="C89">
+        <v>301.11200000000002</v>
+      </c>
+      <c r="D89">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>331.05099999999999</v>
+      </c>
+      <c r="B90">
+        <v>330.72800000000001</v>
+      </c>
+      <c r="C90">
+        <v>331.11200000000002</v>
+      </c>
+      <c r="D90">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="B91">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C91">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D91">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>30.975999999999999</v>
+      </c>
+      <c r="B92">
+        <v>30.582000000000001</v>
+      </c>
+      <c r="C92">
+        <v>30.949000000000002</v>
+      </c>
+      <c r="D92">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>60.976999999999997</v>
+      </c>
+      <c r="B93">
+        <v>60.582000000000001</v>
+      </c>
+      <c r="C93">
+        <v>60.948999999999998</v>
+      </c>
+      <c r="D93">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>90.975999999999999</v>
+      </c>
+      <c r="B94">
+        <v>90.581999999999994</v>
+      </c>
+      <c r="C94">
+        <v>90.947999999999993</v>
+      </c>
+      <c r="D94">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>120.977</v>
+      </c>
+      <c r="B95">
+        <v>120.58199999999999</v>
+      </c>
+      <c r="C95">
+        <v>120.94799999999999</v>
+      </c>
+      <c r="D95">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>150.976</v>
+      </c>
+      <c r="B96">
+        <v>150.58199999999999</v>
+      </c>
+      <c r="C96">
+        <v>150.94800000000001</v>
+      </c>
+      <c r="D96">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>180.976</v>
+      </c>
+      <c r="B97">
+        <v>180.58199999999999</v>
+      </c>
+      <c r="C97">
+        <v>180.94900000000001</v>
+      </c>
+      <c r="D97">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>210.976</v>
+      </c>
+      <c r="B98">
+        <v>210.58199999999999</v>
+      </c>
+      <c r="C98">
+        <v>210.94900000000001</v>
+      </c>
+      <c r="D98">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>240.976</v>
+      </c>
+      <c r="B99">
+        <v>240.58199999999999</v>
+      </c>
+      <c r="C99">
+        <v>240.94900000000001</v>
+      </c>
+      <c r="D99">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>270.976</v>
+      </c>
+      <c r="B100">
+        <v>270.58199999999999</v>
+      </c>
+      <c r="C100">
+        <v>270.94900000000001</v>
+      </c>
+      <c r="D100">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>300.97699999999998</v>
+      </c>
+      <c r="B101">
+        <v>300.58199999999999</v>
+      </c>
+      <c r="C101">
+        <v>300.94900000000001</v>
+      </c>
+      <c r="D101">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>330.97699999999998</v>
+      </c>
+      <c r="B102">
+        <v>330.58199999999999</v>
+      </c>
+      <c r="C102">
+        <v>330.94799999999998</v>
+      </c>
+      <c r="D102">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="B103">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="C103">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D103">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>30.925999999999998</v>
+      </c>
+      <c r="B104">
+        <v>30.448</v>
+      </c>
+      <c r="C104">
+        <v>30.792999999999999</v>
+      </c>
+      <c r="D104">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>60.926000000000002</v>
+      </c>
+      <c r="B105">
+        <v>60.448</v>
+      </c>
+      <c r="C105">
+        <v>60.792999999999999</v>
+      </c>
+      <c r="D105">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>90.926000000000002</v>
+      </c>
+      <c r="B106">
+        <v>90.447999999999993</v>
+      </c>
+      <c r="C106">
+        <v>90.793000000000006</v>
+      </c>
+      <c r="D106">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>120.926</v>
+      </c>
+      <c r="B107">
+        <v>120.44799999999999</v>
+      </c>
+      <c r="C107">
+        <v>120.79300000000001</v>
+      </c>
+      <c r="D107">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>150.92599999999999</v>
+      </c>
+      <c r="B108">
+        <v>150.44800000000001</v>
+      </c>
+      <c r="C108">
+        <v>150.79300000000001</v>
+      </c>
+      <c r="D108">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>180.92599999999999</v>
+      </c>
+      <c r="B109">
+        <v>180.44800000000001</v>
+      </c>
+      <c r="C109">
+        <v>180.79300000000001</v>
+      </c>
+      <c r="D109">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>210.92599999999999</v>
+      </c>
+      <c r="B110">
+        <v>210.44800000000001</v>
+      </c>
+      <c r="C110">
+        <v>210.79300000000001</v>
+      </c>
+      <c r="D110">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>240.92599999999999</v>
+      </c>
+      <c r="B111">
+        <v>240.44800000000001</v>
+      </c>
+      <c r="C111">
+        <v>240.79300000000001</v>
+      </c>
+      <c r="D111">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>270.92599999999999</v>
+      </c>
+      <c r="B112">
+        <v>270.44799999999998</v>
+      </c>
+      <c r="C112">
+        <v>270.79300000000001</v>
+      </c>
+      <c r="D112">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>300.92599999999999</v>
+      </c>
+      <c r="B113">
+        <v>300.44799999999998</v>
+      </c>
+      <c r="C113">
+        <v>300.79300000000001</v>
+      </c>
+      <c r="D113">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>330.92599999999999</v>
+      </c>
+      <c r="B114">
+        <v>330.44799999999998</v>
+      </c>
+      <c r="C114">
+        <v>330.79300000000001</v>
+      </c>
+      <c r="D114">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="B115">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C115">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D115">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>30.135999999999999</v>
+      </c>
+      <c r="B116">
+        <v>30.167000000000002</v>
+      </c>
+      <c r="C116">
+        <v>30.640999999999998</v>
+      </c>
+      <c r="D116">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>60.134999999999998</v>
+      </c>
+      <c r="B117">
+        <v>60.167000000000002</v>
+      </c>
+      <c r="C117">
+        <v>60.640999999999998</v>
+      </c>
+      <c r="D117">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>90.135999999999996</v>
+      </c>
+      <c r="B118">
+        <v>90.165999999999997</v>
+      </c>
+      <c r="C118">
+        <v>90.641000000000005</v>
+      </c>
+      <c r="D118">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>120.136</v>
+      </c>
+      <c r="B119">
+        <v>120.167</v>
+      </c>
+      <c r="C119">
+        <v>120.64100000000001</v>
+      </c>
+      <c r="D119">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>150.136</v>
+      </c>
+      <c r="B120">
+        <v>150.166</v>
+      </c>
+      <c r="C120">
+        <v>150.64099999999999</v>
+      </c>
+      <c r="D120">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>180.136</v>
+      </c>
+      <c r="B121">
+        <v>180.167</v>
+      </c>
+      <c r="C121">
+        <v>180.64099999999999</v>
+      </c>
+      <c r="D121">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>210.136</v>
+      </c>
+      <c r="B122">
+        <v>210.167</v>
+      </c>
+      <c r="C122">
+        <v>210.64099999999999</v>
+      </c>
+      <c r="D122">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>240.136</v>
+      </c>
+      <c r="B123">
+        <v>240.166</v>
+      </c>
+      <c r="C123">
+        <v>240.642</v>
+      </c>
+      <c r="D123">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>270.13600000000002</v>
+      </c>
+      <c r="B124">
+        <v>270.16699999999997</v>
+      </c>
+      <c r="C124">
+        <v>270.642</v>
+      </c>
+      <c r="D124">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>300.13600000000002</v>
+      </c>
+      <c r="B125">
+        <v>300.16699999999997</v>
+      </c>
+      <c r="C125">
+        <v>300.64100000000002</v>
+      </c>
+      <c r="D125">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>330.13600000000002</v>
+      </c>
+      <c r="B126">
+        <v>330.16699999999997</v>
+      </c>
+      <c r="C126">
+        <v>330.64100000000002</v>
+      </c>
+      <c r="D126">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="B127">
+        <v>0.15</v>
+      </c>
+      <c r="C127">
+        <v>0.435</v>
+      </c>
+      <c r="D127">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>30.405000000000001</v>
+      </c>
+      <c r="B128">
+        <v>30.064</v>
+      </c>
+      <c r="C128">
+        <v>30.434999999999999</v>
+      </c>
+      <c r="D128">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>60.404000000000003</v>
+      </c>
+      <c r="B129">
+        <v>60.063000000000002</v>
+      </c>
+      <c r="C129">
+        <v>60.435000000000002</v>
+      </c>
+      <c r="D129">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>90.403999999999996</v>
+      </c>
+      <c r="B130">
+        <v>90.063000000000002</v>
+      </c>
+      <c r="C130">
+        <v>90.435000000000002</v>
+      </c>
+      <c r="D130">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>120.405</v>
+      </c>
+      <c r="B131">
+        <v>120.063</v>
+      </c>
+      <c r="C131">
+        <v>120.435</v>
+      </c>
+      <c r="D131">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>150.404</v>
+      </c>
+      <c r="B132">
+        <v>150.06299999999999</v>
+      </c>
+      <c r="C132">
+        <v>150.435</v>
+      </c>
+      <c r="D132">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>180.404</v>
+      </c>
+      <c r="D133">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>210.404</v>
+      </c>
+      <c r="D134">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>240.404</v>
+      </c>
+      <c r="D135">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>270.40499999999997</v>
+      </c>
+      <c r="D136">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>300.40499999999997</v>
+      </c>
+      <c r="D137">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>330.40499999999997</v>
+      </c>
+      <c r="D138">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D139">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>29.577999999999999</v>
+      </c>
+      <c r="D140">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>59.578000000000003</v>
+      </c>
+      <c r="D141">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>89.578000000000003</v>
+      </c>
+      <c r="D142">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>119.578</v>
+      </c>
+      <c r="D143">
+        <f>bridgetest1[[#This Row],[time]]-1594818217</f>
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data_Files/data sheet.xlsx
+++ b/Data_Files/data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\SPRI2020_Roomba\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7046997B-1F4D-4C8F-9AC5-3CB7E1984FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E266E38-5581-4155-8A49-A1D7C8F08426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
   </bookViews>
@@ -1934,9 +1934,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
-                <c:pt idx="0">
-                  <c:v>351.79500000000002</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>351.80200000000002</c:v>
                 </c:pt>
@@ -2369,9 +2366,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
-                <c:pt idx="0">
-                  <c:v>364.96</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>4.9740000000000002</c:v>
                 </c:pt>
@@ -2804,9 +2798,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
-                <c:pt idx="0">
-                  <c:v>479.30500000000001</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>119.32</c:v>
                 </c:pt>
@@ -4679,16 +4670,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13372,8 +13363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2AE434-B430-41FD-9CB4-6AB42C2DABF6}">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="V112" sqref="V112"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13393,15 +13384,6 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>351.79500000000002</v>
-      </c>
-      <c r="B2">
-        <v>364.96</v>
-      </c>
-      <c r="C2">
-        <v>479.30500000000001</v>
-      </c>
       <c r="D2">
         <f>bridgetest1[[#This Row],[time]]-1594818217</f>
         <v>0</v>

--- a/Data_Files/data sheet.xlsx
+++ b/Data_Files/data sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\SPRI2020_Roomba\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E266E38-5581-4155-8A49-A1D7C8F08426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEC957E-3D2A-4949-A002-7D5DC1EF0C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E4037CD8-7E1D-41C5-8495-EF3C63D3D566}"/>
   </bookViews>
@@ -3513,6 +3513,1595 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heading</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (degrees) vs Time (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heading 1 -initial heading of 90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>173.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>176.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>180.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>181.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>181.42</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>180.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>181.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>180.976</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>180.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>180.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>180.13499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E56-4A5B-8A63-1F64D5367F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heading 2 - initial heading of 180</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179.14099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>177.52099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180.666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>180.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>181.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>181.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>180.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>180.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>180.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>180.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>180.386</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>180.166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E56-4A5B-8A63-1F64D5367F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heading 3 - intial angle of 270</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>184.279</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>181.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>181.535</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>181.327</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>181.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>180.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>180.64099999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>180.64099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E56-4A5B-8A63-1F64D5367F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="64518784"/>
+        <c:axId val="392638527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="64518784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392638527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392638527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Heading</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (degrees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64518784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3554,6 +5143,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4625,20 +6254,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4671,15 +6816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4699,6 +6844,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34F1DBD-53BE-454D-8ADF-DB739BA683EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13363,7 +15546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2AE434-B430-41FD-9CB4-6AB42C2DABF6}">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
